--- a/Metadata/InstrumentMetadata_RanchoGuadalupe.xlsx
+++ b/Metadata/InstrumentMetadata_RanchoGuadalupe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25580" yWindow="10840" windowWidth="38020" windowHeight="9240" tabRatio="500"/>
+    <workbookView xWindow="32600" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,8 +287,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="619">
+  <cellStyleXfs count="623">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -918,7 +922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="619">
+  <cellStyles count="623">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1228,6 +1232,8 @@
     <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1537,6 +1543,8 @@
     <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1869,9 +1877,9 @@
   <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2524,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -2571,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="4">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>16</v>
@@ -2618,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>14</v>
@@ -2665,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
@@ -3182,7 +3190,7 @@
         <v>-0.22</v>
       </c>
       <c r="I28" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>16</v>
@@ -3229,7 +3237,7 @@
         <v>-0.22</v>
       </c>
       <c r="I29" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>16</v>
@@ -3276,7 +3284,7 @@
         <v>-0.22</v>
       </c>
       <c r="I30" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>16</v>
@@ -3323,7 +3331,7 @@
         <v>-0.22</v>
       </c>
       <c r="I31" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>16</v>
@@ -3370,7 +3378,7 @@
         <v>-0.22</v>
       </c>
       <c r="I32" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>16</v>
@@ -3417,7 +3425,7 @@
         <v>-0.22</v>
       </c>
       <c r="I33" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>16</v>
@@ -3464,7 +3472,7 @@
         <v>-0.22</v>
       </c>
       <c r="I34" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>16</v>
@@ -3511,7 +3519,7 @@
         <v>-0.22</v>
       </c>
       <c r="I35" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>16</v>
@@ -3558,7 +3566,7 @@
         <v>-0.22</v>
       </c>
       <c r="I36" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>16</v>
@@ -3605,7 +3613,7 @@
         <v>-0.34499999999999997</v>
       </c>
       <c r="I37" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>16</v>
@@ -3652,7 +3660,7 @@
         <v>-0.34499999999999997</v>
       </c>
       <c r="I38" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>16</v>
@@ -3699,7 +3707,7 @@
         <v>-0.34499999999999997</v>
       </c>
       <c r="I39" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>16</v>
@@ -3746,7 +3754,7 @@
         <v>-0.34499999999999997</v>
       </c>
       <c r="I40" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>16</v>
@@ -3793,7 +3801,7 @@
         <v>-0.38</v>
       </c>
       <c r="I41" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>16</v>
@@ -3840,7 +3848,7 @@
         <v>-0.38</v>
       </c>
       <c r="I42" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>16</v>
@@ -3887,7 +3895,7 @@
         <v>-0.38</v>
       </c>
       <c r="I43" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>16</v>
@@ -3934,7 +3942,7 @@
         <v>-0.38</v>
       </c>
       <c r="I44" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>16</v>
@@ -3981,7 +3989,7 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="I45" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>16</v>
@@ -4028,7 +4036,7 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="I46" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>16</v>
@@ -4075,7 +4083,7 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="I47" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>16</v>
@@ -4122,7 +4130,7 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="I48" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>16</v>
@@ -4169,7 +4177,7 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="I49" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>16</v>
@@ -4216,7 +4224,7 @@
         <v>-0.15</v>
       </c>
       <c r="I50" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>16</v>
@@ -4263,7 +4271,7 @@
         <v>-0.15</v>
       </c>
       <c r="I51" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>16</v>
@@ -4310,7 +4318,7 @@
         <v>-0.15</v>
       </c>
       <c r="I52" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>16</v>
@@ -4357,7 +4365,7 @@
         <v>-0.15</v>
       </c>
       <c r="I53" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>16</v>
@@ -4404,7 +4412,7 @@
         <v>-0.15</v>
       </c>
       <c r="I54" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>16</v>
@@ -4451,7 +4459,7 @@
         <v>-0.15</v>
       </c>
       <c r="I55" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>16</v>
@@ -4498,7 +4506,7 @@
         <v>-0.15</v>
       </c>
       <c r="I56" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>16</v>
@@ -4545,7 +4553,7 @@
         <v>-0.15</v>
       </c>
       <c r="I57" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>16</v>
@@ -4592,7 +4600,7 @@
         <v>-0.15</v>
       </c>
       <c r="I58" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>16</v>
@@ -4639,7 +4647,7 @@
         <v>-0.31</v>
       </c>
       <c r="I59" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>16</v>
@@ -4686,7 +4694,7 @@
         <v>-0.31</v>
       </c>
       <c r="I60" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>16</v>
@@ -4733,7 +4741,7 @@
         <v>-0.31</v>
       </c>
       <c r="I61" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>16</v>
@@ -4780,7 +4788,7 @@
         <v>-0.31</v>
       </c>
       <c r="I62" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>16</v>
@@ -4827,7 +4835,7 @@
         <v>-0.31</v>
       </c>
       <c r="I63" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>16</v>
@@ -4874,7 +4882,7 @@
         <v>-0.36499999999999999</v>
       </c>
       <c r="I64" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>16</v>
@@ -4921,7 +4929,7 @@
         <v>-0.36499999999999999</v>
       </c>
       <c r="I65" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>16</v>
@@ -4968,7 +4976,7 @@
         <v>-0.36499999999999999</v>
       </c>
       <c r="I66" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>16</v>
@@ -5015,7 +5023,7 @@
         <v>-0.36499999999999999</v>
       </c>
       <c r="I67" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>16</v>
@@ -5062,7 +5070,7 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="I68" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>16</v>
@@ -5109,7 +5117,7 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="I69" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>16</v>
@@ -5156,7 +5164,7 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="I70" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>16</v>
@@ -5203,7 +5211,7 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="I71" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>16</v>
@@ -5250,7 +5258,7 @@
         <v>-0.34499999999999997</v>
       </c>
       <c r="I72" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>16</v>
@@ -5297,7 +5305,7 @@
         <v>-0.34499999999999997</v>
       </c>
       <c r="I73" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>16</v>
@@ -5344,7 +5352,7 @@
         <v>-0.34499999999999997</v>
       </c>
       <c r="I74" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>16</v>
@@ -5391,7 +5399,7 @@
         <v>-0.34499999999999997</v>
       </c>
       <c r="I75" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>16</v>
@@ -5438,7 +5446,7 @@
         <v>-0.34499999999999997</v>
       </c>
       <c r="I76" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>16</v>
@@ -5485,7 +5493,7 @@
         <v>-0.375</v>
       </c>
       <c r="I77" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>16</v>
@@ -5532,7 +5540,7 @@
         <v>-0.375</v>
       </c>
       <c r="I78" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>16</v>
@@ -5579,7 +5587,7 @@
         <v>-0.375</v>
       </c>
       <c r="I79" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>16</v>
@@ -5626,7 +5634,7 @@
         <v>-0.375</v>
       </c>
       <c r="I80" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>16</v>
@@ -5673,7 +5681,7 @@
         <v>-0.36499999999999999</v>
       </c>
       <c r="I81" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>16</v>
@@ -5720,7 +5728,7 @@
         <v>-0.36499999999999999</v>
       </c>
       <c r="I82" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>16</v>
@@ -5767,7 +5775,7 @@
         <v>-0.36499999999999999</v>
       </c>
       <c r="I83" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>16</v>
@@ -5814,7 +5822,7 @@
         <v>-0.36499999999999999</v>
       </c>
       <c r="I84" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>16</v>
@@ -5861,7 +5869,7 @@
         <v>-0.36499999999999999</v>
       </c>
       <c r="I85" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>16</v>
@@ -5908,7 +5916,7 @@
         <v>-0.31</v>
       </c>
       <c r="I86" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>16</v>
@@ -5955,7 +5963,7 @@
         <v>-0.31</v>
       </c>
       <c r="I87" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>16</v>
@@ -6002,7 +6010,7 @@
         <v>-0.31</v>
       </c>
       <c r="I88" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>16</v>
@@ -6049,7 +6057,7 @@
         <v>-0.31</v>
       </c>
       <c r="I89" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>16</v>
@@ -6096,7 +6104,7 @@
         <v>-0.375</v>
       </c>
       <c r="I90" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>16</v>
@@ -6143,7 +6151,7 @@
         <v>-0.375</v>
       </c>
       <c r="I91" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>16</v>
@@ -6190,7 +6198,7 @@
         <v>-0.375</v>
       </c>
       <c r="I92" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>16</v>
@@ -6237,7 +6245,7 @@
         <v>-0.375</v>
       </c>
       <c r="I93" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>16</v>
@@ -6284,7 +6292,7 @@
         <v>-0.375</v>
       </c>
       <c r="I94" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>16</v>
@@ -6331,7 +6339,7 @@
         <v>-0.38</v>
       </c>
       <c r="I95" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>16</v>
@@ -6378,7 +6386,7 @@
         <v>-0.38</v>
       </c>
       <c r="I96" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>16</v>
@@ -6425,7 +6433,7 @@
         <v>-0.38</v>
       </c>
       <c r="I97" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>16</v>
@@ -6472,7 +6480,7 @@
         <v>-0.38</v>
       </c>
       <c r="I98" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>16</v>
@@ -6519,7 +6527,7 @@
         <v>-0.38</v>
       </c>
       <c r="I99" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>16</v>

--- a/Metadata/InstrumentMetadata_RanchoGuadalupe.xlsx
+++ b/Metadata/InstrumentMetadata_RanchoGuadalupe.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="32600" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="67">
   <si>
     <t>Site</t>
   </si>
@@ -1874,12 +1874,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1950,22 +1950,22 @@
         <v>42086</v>
       </c>
       <c r="C2" s="3">
-        <v>0.499305555555556</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="D2" s="3">
-        <v>0.77638888888888902</v>
+        <v>0.77638888888888891</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.38</v>
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="H2">
+        <v>0.44500000000000001</v>
       </c>
       <c r="I2" s="4">
         <v>0.01</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4">
-        <v>-0.65</v>
+        <v>0.93</v>
       </c>
       <c r="M2" s="4">
         <v>-30</v>
@@ -1985,8 +1985,8 @@
       <c r="N2" s="4">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
-        <v>25</v>
+      <c r="O2" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1994,25 +1994,25 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C3" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="D3" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.77638888888888891</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.33</v>
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>0.995</v>
+      </c>
+      <c r="H3">
+        <v>0.995</v>
       </c>
       <c r="I3" s="4">
         <v>0.01</v>
@@ -2021,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L3" s="5">
-        <v>-0.745</v>
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
       </c>
       <c r="M3" s="4">
         <v>-30</v>
@@ -2032,8 +2032,8 @@
       <c r="N3" s="4">
         <v>0</v>
       </c>
-      <c r="O3" t="s">
-        <v>25</v>
+      <c r="O3" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2044,22 +2044,22 @@
         <v>42086</v>
       </c>
       <c r="C4" s="3">
-        <v>0.499305555555556</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="D4" s="3">
-        <v>0.77638888888888902</v>
+        <v>0.77638888888888891</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2.08</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2.08</v>
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="H4">
+        <v>1.7949999999999999</v>
       </c>
       <c r="I4" s="4">
         <v>0.01</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4">
         <v>-30</v>
@@ -2079,8 +2079,8 @@
       <c r="N4" s="4">
         <v>0</v>
       </c>
-      <c r="O4" t="s">
-        <v>29</v>
+      <c r="O4" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2088,25 +2088,25 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C5" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.4993055555555555</v>
       </c>
       <c r="D5" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.77638888888888891</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2.08</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2.0699999999999998</v>
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>2.7450000000000001</v>
+      </c>
+      <c r="H5">
+        <v>2.7450000000000001</v>
       </c>
       <c r="I5" s="4">
         <v>0.01</v>
@@ -2115,19 +2115,19 @@
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4">
         <v>-30</v>
       </c>
       <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2147,13 +2147,13 @@
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4">
-        <v>0.99</v>
+        <v>0.38</v>
       </c>
       <c r="H6" s="4">
-        <v>0.99</v>
+        <v>0.38</v>
       </c>
       <c r="I6" s="4">
         <v>0.01</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>0.66</v>
+        <v>-0.65</v>
       </c>
       <c r="M6" s="4">
         <v>-30</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2182,25 +2182,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C7" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.499305555555556</v>
       </c>
       <c r="D7" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.77638888888888902</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="4">
-        <v>0.99</v>
+        <v>0.72</v>
       </c>
       <c r="H7" s="4">
-        <v>0.99</v>
+        <v>0.72</v>
       </c>
       <c r="I7" s="4">
         <v>0.01</v>
@@ -2209,10 +2209,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>0.51</v>
+        <v>-0.23</v>
       </c>
       <c r="M7" s="4">
         <v>-30</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2241,13 +2241,13 @@
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="4">
-        <v>1.28</v>
+        <v>0.99</v>
       </c>
       <c r="H8" s="4">
-        <v>1.28</v>
+        <v>0.99</v>
       </c>
       <c r="I8" s="4">
         <v>0.01</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>-0.65</v>
+        <v>0.66</v>
       </c>
       <c r="M8" s="4">
         <v>-30</v>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2276,13 +2276,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C9" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.499305555555556</v>
       </c>
       <c r="D9" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.77638888888888902</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>40</v>
@@ -2291,10 +2291,10 @@
         <v>28</v>
       </c>
       <c r="G9" s="4">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="H9" s="4">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="I9" s="4">
         <v>0.01</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L9" s="5">
-        <v>-0.745</v>
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>-0.65</v>
       </c>
       <c r="M9" s="4">
         <v>-30</v>
@@ -2335,13 +2335,13 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G10" s="4">
-        <v>0.72</v>
+        <v>2.08</v>
       </c>
       <c r="H10" s="4">
-        <v>0.72</v>
+        <v>2.08</v>
       </c>
       <c r="I10" s="4">
         <v>0.01</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>-0.23</v>
+        <v>0.66</v>
       </c>
       <c r="M10" s="4">
         <v>-30</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2370,25 +2370,25 @@
         <v>6</v>
       </c>
       <c r="B11" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C11" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.499305555555556</v>
       </c>
       <c r="D11" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.77638888888888902</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G11" s="4">
-        <v>0.79</v>
+        <v>2.35</v>
       </c>
       <c r="H11" s="4">
-        <v>0.78</v>
+        <v>2.35</v>
       </c>
       <c r="I11" s="4">
         <v>0.01</v>
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4">
-        <v>-0.66500000000000004</v>
+        <v>-0.65</v>
       </c>
       <c r="M11" s="4">
         <v>-30</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2426,28 +2426,28 @@
         <v>0.77638888888888902</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G12" s="4">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="H12" s="4">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="K12" s="4">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="L12" s="4">
-        <v>-0.65</v>
+        <v>0</v>
       </c>
       <c r="M12" s="4">
         <v>-30</v>
@@ -2455,8 +2455,8 @@
       <c r="N12" s="4">
         <v>0</v>
       </c>
-      <c r="O12" t="s">
-        <v>44</v>
+      <c r="O12" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2464,37 +2464,37 @@
         <v>6</v>
       </c>
       <c r="B13" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C13" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.499305555555556</v>
       </c>
       <c r="D13" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.77638888888888902</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G13" s="4">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="H13" s="4">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
       </c>
       <c r="K13" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L13" s="5">
-        <v>-0.745</v>
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
       </c>
       <c r="M13" s="4">
         <v>-30</v>
@@ -2502,8 +2502,8 @@
       <c r="N13" s="4">
         <v>0</v>
       </c>
-      <c r="O13" t="s">
-        <v>44</v>
+      <c r="O13" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2520,10 +2520,10 @@
         <v>0.77638888888888902</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -2534,8 +2534,8 @@
       <c r="I14" s="4">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>16</v>
+      <c r="J14" s="4">
+        <v>0</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2558,46 +2558,46 @@
         <v>6</v>
       </c>
       <c r="B15" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C15" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.51944444444444404</v>
       </c>
       <c r="D15" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.56111111111111101</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G15" s="4">
-        <v>0</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="H15" s="4">
-        <v>0</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
+        <v>1E-3</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>0</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="M15" s="4">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="N15" s="4">
         <v>0</v>
       </c>
-      <c r="O15" s="6" t="s">
-        <v>64</v>
+      <c r="O15" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2608,34 +2608,34 @@
         <v>42086</v>
       </c>
       <c r="C16" s="3">
-        <v>0.499305555555556</v>
+        <v>0.51944444444444404</v>
       </c>
       <c r="D16" s="3">
-        <v>0.77638888888888902</v>
+        <v>0.56111111111111101</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I16" s="4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K16" s="4">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="M16" s="4">
         <v>-30</v>
@@ -2643,8 +2643,8 @@
       <c r="N16" s="4">
         <v>0</v>
       </c>
-      <c r="O16" s="6" t="s">
-        <v>65</v>
+      <c r="O16" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2652,46 +2652,46 @@
         <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C17" s="3">
-        <v>0.48194444444444445</v>
+        <v>0.51944444444444404</v>
       </c>
       <c r="D17" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.56111111111111101</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G17" s="4">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
       <c r="H17" s="4">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
       <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>14</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K17" s="4">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>0</v>
+        <v>-0.28499999999999998</v>
       </c>
       <c r="M17" s="4">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="N17" s="4">
         <v>0</v>
       </c>
-      <c r="O17" s="6" t="s">
-        <v>65</v>
+      <c r="O17" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2702,34 +2702,34 @@
         <v>42086</v>
       </c>
       <c r="C18" s="3">
-        <v>0.4993055555555555</v>
+        <v>0.51944444444444404</v>
       </c>
       <c r="D18" s="3">
-        <v>0.77638888888888891</v>
+        <v>0.56111111111111101</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>0.995</v>
-      </c>
-      <c r="H18">
-        <v>0.995</v>
+        <v>22</v>
+      </c>
+      <c r="G18" s="4">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I18" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="M18" s="4">
         <v>-30</v>
@@ -2737,8 +2737,8 @@
       <c r="N18" s="4">
         <v>0</v>
       </c>
-      <c r="O18" s="6" t="s">
-        <v>46</v>
+      <c r="O18" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2746,37 +2746,37 @@
         <v>6</v>
       </c>
       <c r="B19" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C19" s="3">
-        <v>0.48194444444444445</v>
+        <v>0.51944444444444404</v>
       </c>
       <c r="D19" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.56111111111111101</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19">
-        <v>0.995</v>
-      </c>
-      <c r="H19">
-        <v>1.0049999999999999</v>
+        <v>23</v>
+      </c>
+      <c r="G19" s="4">
+        <v>-0.22</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-0.22</v>
       </c>
       <c r="I19" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K19" s="4">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>-0.15</v>
+        <v>-0.115</v>
       </c>
       <c r="M19" s="4">
         <v>-30</v>
@@ -2784,8 +2784,8 @@
       <c r="N19" s="4">
         <v>0</v>
       </c>
-      <c r="O19" s="6" t="s">
-        <v>46</v>
+      <c r="O19" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2796,43 +2796,43 @@
         <v>42086</v>
       </c>
       <c r="C20" s="3">
-        <v>0.4993055555555555</v>
+        <v>0.51944444444444404</v>
       </c>
       <c r="D20" s="3">
-        <v>0.77638888888888891</v>
+        <v>0.56111111111111101</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20">
-        <v>2.7450000000000001</v>
-      </c>
-      <c r="H20">
-        <v>2.7450000000000001</v>
+        <v>24</v>
+      </c>
+      <c r="G20" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="H20" s="4">
+        <v>-0.15</v>
       </c>
       <c r="I20" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M20" s="4">
         <v>-30</v>
       </c>
       <c r="N20" s="4">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2840,37 +2840,37 @@
         <v>6</v>
       </c>
       <c r="B21" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C21" s="3">
-        <v>0.48194444444444445</v>
+        <v>0.51944444444444449</v>
       </c>
       <c r="D21" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.56111111111111112</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21">
-        <v>2.8050000000000002</v>
-      </c>
-      <c r="H21">
-        <v>2.8149999999999999</v>
+        <v>17</v>
+      </c>
+      <c r="G21" s="4">
+        <v>-0.38</v>
+      </c>
+      <c r="H21" s="4">
+        <v>-0.38</v>
       </c>
       <c r="I21" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K21" s="4">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>-0.15</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="M21" s="4">
         <v>-30</v>
@@ -2878,8 +2878,8 @@
       <c r="N21" s="4">
         <v>1</v>
       </c>
-      <c r="O21" s="6" t="s">
-        <v>48</v>
+      <c r="O21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2890,34 +2890,34 @@
         <v>42086</v>
       </c>
       <c r="C22" s="3">
-        <v>0.4993055555555555</v>
+        <v>0.51944444444444449</v>
       </c>
       <c r="D22" s="3">
-        <v>0.77638888888888891</v>
+        <v>0.56111111111111112</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="H22">
-        <v>0.44500000000000001</v>
+        <v>18</v>
+      </c>
+      <c r="G22" s="4">
+        <v>-0.375</v>
+      </c>
+      <c r="H22" s="4">
+        <v>-0.375</v>
       </c>
       <c r="I22" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <v>0.93</v>
+        <v>0.26</v>
       </c>
       <c r="M22" s="4">
         <v>-30</v>
@@ -2925,8 +2925,8 @@
       <c r="N22" s="4">
         <v>0</v>
       </c>
-      <c r="O22" s="6" t="s">
-        <v>45</v>
+      <c r="O22" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2934,46 +2934,46 @@
         <v>6</v>
       </c>
       <c r="B23" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C23" s="3">
-        <v>0.48194444444444445</v>
+        <v>0.57083333333333297</v>
       </c>
       <c r="D23" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.60208333333333297</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="H23">
-        <v>0.435</v>
+        <v>19</v>
+      </c>
+      <c r="G23" s="4">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="H23" s="4">
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I23" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K23" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L23" s="5">
-        <v>0.78</v>
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>-0.22500000000000001</v>
       </c>
       <c r="M23" s="4">
         <v>-30</v>
       </c>
       <c r="N23" s="4">
-        <v>0</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2984,43 +2984,43 @@
         <v>42086</v>
       </c>
       <c r="C24" s="3">
-        <v>0.4993055555555555</v>
+        <v>0.57083333333333297</v>
       </c>
       <c r="D24" s="3">
-        <v>0.77638888888888891</v>
+        <v>0.60208333333333297</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24">
-        <v>1.7949999999999999</v>
-      </c>
-      <c r="H24">
-        <v>1.7949999999999999</v>
+        <v>20</v>
+      </c>
+      <c r="G24" s="4">
+        <v>-0.34499999999999997</v>
+      </c>
+      <c r="H24" s="4">
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I24" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
       </c>
       <c r="L24" s="4">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="M24" s="4">
         <v>-30</v>
       </c>
       <c r="N24" s="4">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -3028,46 +3028,46 @@
         <v>6</v>
       </c>
       <c r="B25" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C25" s="3">
-        <v>0.48194444444444445</v>
+        <v>0.57083333333333297</v>
       </c>
       <c r="D25" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.60208333333333297</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25">
-        <v>1.7849999999999999</v>
-      </c>
-      <c r="H25">
-        <v>1.7949999999999999</v>
+        <v>21</v>
+      </c>
+      <c r="G25" s="4">
+        <v>-0.31</v>
+      </c>
+      <c r="H25" s="4">
+        <v>-0.31</v>
       </c>
       <c r="I25" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K25" s="4">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="L25" s="4">
-        <v>-0.15</v>
+        <v>-0.28499999999999998</v>
       </c>
       <c r="M25" s="4">
         <v>-30</v>
       </c>
       <c r="N25" s="4">
-        <v>0</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -3078,34 +3078,34 @@
         <v>42086</v>
       </c>
       <c r="C26" s="3">
-        <v>0.499305555555556</v>
+        <v>0.57083333333333297</v>
       </c>
       <c r="D26" s="3">
-        <v>0.77638888888888902</v>
+        <v>0.60208333333333297</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G26" s="4">
-        <v>0</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H26" s="4">
-        <v>0</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K26" s="4">
         <v>0</v>
       </c>
       <c r="L26" s="4">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="M26" s="4">
         <v>-30</v>
@@ -3113,8 +3113,8 @@
       <c r="N26" s="4">
         <v>0</v>
       </c>
-      <c r="O26" s="6" t="s">
-        <v>66</v>
+      <c r="O26" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -3122,37 +3122,37 @@
         <v>6</v>
       </c>
       <c r="B27" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C27" s="3">
-        <v>0.48194444444444445</v>
+        <v>0.57083333333333297</v>
       </c>
       <c r="D27" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.60208333333333297</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G27" s="4">
-        <v>0</v>
+        <v>-0.22</v>
       </c>
       <c r="H27" s="4">
-        <v>0</v>
+        <v>-0.22</v>
       </c>
       <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K27" s="4">
         <v>0</v>
       </c>
       <c r="L27" s="4">
-        <v>0</v>
+        <v>-0.115</v>
       </c>
       <c r="M27" s="4">
         <v>-30</v>
@@ -3160,8 +3160,8 @@
       <c r="N27" s="4">
         <v>0</v>
       </c>
-      <c r="O27" s="6" t="s">
-        <v>66</v>
+      <c r="O27" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -3172,22 +3172,22 @@
         <v>42086</v>
       </c>
       <c r="C28" s="3">
-        <v>0.51944444444444404</v>
+        <v>0.57083333333333297</v>
       </c>
       <c r="D28" s="3">
-        <v>0.56111111111111101</v>
+        <v>0.60208333333333297</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G28" s="4">
-        <v>-0.22</v>
+        <v>-0.15</v>
       </c>
       <c r="H28" s="4">
-        <v>-0.22</v>
+        <v>-0.15</v>
       </c>
       <c r="I28" s="4">
         <v>1E-3</v>
@@ -3199,16 +3199,16 @@
         <v>0</v>
       </c>
       <c r="L28" s="4">
-        <v>-0.115</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M28" s="4">
         <v>-30</v>
       </c>
       <c r="N28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -3219,22 +3219,22 @@
         <v>42086</v>
       </c>
       <c r="C29" s="3">
-        <v>0.57083333333333297</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="D29" s="3">
-        <v>0.60208333333333297</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G29" s="4">
-        <v>-0.22</v>
+        <v>-0.38</v>
       </c>
       <c r="H29" s="4">
-        <v>-0.22</v>
+        <v>-0.38</v>
       </c>
       <c r="I29" s="4">
         <v>1E-3</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="L29" s="4">
-        <v>-0.115</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="M29" s="4">
         <v>-30</v>
       </c>
       <c r="N29" s="4">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -3266,22 +3266,22 @@
         <v>42086</v>
       </c>
       <c r="C30" s="3">
-        <v>0.61944444444444446</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="D30" s="3">
-        <v>0.66111111111111109</v>
+        <v>0.6020833333333333</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G30" s="4">
-        <v>-0.22</v>
+        <v>-0.375</v>
       </c>
       <c r="H30" s="4">
-        <v>-0.22</v>
+        <v>-0.375</v>
       </c>
       <c r="I30" s="4">
         <v>1E-3</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4">
-        <v>-0.115</v>
+        <v>0.26</v>
       </c>
       <c r="M30" s="4">
         <v>-30</v>
@@ -3301,8 +3301,8 @@
       <c r="N30" s="4">
         <v>0</v>
       </c>
-      <c r="O30" s="7" t="s">
-        <v>61</v>
+      <c r="O30" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -3313,22 +3313,22 @@
         <v>42086</v>
       </c>
       <c r="C31" s="3">
-        <v>0.67708333333333304</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D31" s="3">
-        <v>0.71875</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G31" s="4">
-        <v>-0.22</v>
+        <v>-0.38</v>
       </c>
       <c r="H31" s="4">
-        <v>-0.22</v>
+        <v>-0.38</v>
       </c>
       <c r="I31" s="4">
         <v>1E-3</v>
@@ -3340,16 +3340,16 @@
         <v>0</v>
       </c>
       <c r="L31" s="4">
-        <v>-0.115</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="M31" s="4">
         <v>-30</v>
       </c>
       <c r="N31" s="4">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -3360,22 +3360,22 @@
         <v>42086</v>
       </c>
       <c r="C32" s="3">
-        <v>0.72847222222222197</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D32" s="3">
-        <v>0.77013888888888904</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G32" s="4">
-        <v>-0.22</v>
+        <v>-0.375</v>
       </c>
       <c r="H32" s="4">
-        <v>-0.22</v>
+        <v>-0.375</v>
       </c>
       <c r="I32" s="4">
         <v>1E-3</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4">
-        <v>-0.115</v>
+        <v>0.26</v>
       </c>
       <c r="M32" s="4">
         <v>-30</v>
@@ -3395,8 +3395,8 @@
       <c r="N32" s="4">
         <v>0</v>
       </c>
-      <c r="O32" s="7" t="s">
-        <v>61</v>
+      <c r="O32" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -3404,25 +3404,25 @@
         <v>6</v>
       </c>
       <c r="B33" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C33" s="3">
-        <v>0.563194444444444</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D33" s="3">
-        <v>0.60486111111111096</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G33" s="4">
-        <v>-0.22</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="H33" s="4">
-        <v>-0.22</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I33" s="4">
         <v>1E-3</v>
@@ -3434,16 +3434,16 @@
         <v>0</v>
       </c>
       <c r="L33" s="4">
-        <v>-0.09</v>
-      </c>
-      <c r="M33" s="5">
-        <v>0</v>
+        <v>-0.22500000000000001</v>
+      </c>
+      <c r="M33" s="4">
+        <v>-30</v>
       </c>
       <c r="N33" s="4">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -3451,25 +3451,25 @@
         <v>6</v>
       </c>
       <c r="B34" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C34" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D34" s="3">
-        <v>0.65277777777777801</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G34" s="4">
-        <v>-0.22</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="H34" s="4">
-        <v>-0.22</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I34" s="4">
         <v>1E-3</v>
@@ -3481,16 +3481,16 @@
         <v>0</v>
       </c>
       <c r="L34" s="4">
-        <v>-0.09</v>
-      </c>
-      <c r="M34" s="5">
-        <v>0</v>
+        <v>0.09</v>
+      </c>
+      <c r="M34" s="4">
+        <v>-30</v>
       </c>
       <c r="N34" s="4">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -3498,25 +3498,25 @@
         <v>6</v>
       </c>
       <c r="B35" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C35" s="3">
-        <v>0.65902777777777799</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D35" s="3">
-        <v>0.69027777777777799</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G35" s="4">
-        <v>-0.22</v>
+        <v>-0.31</v>
       </c>
       <c r="H35" s="4">
-        <v>-0.22</v>
+        <v>-0.31</v>
       </c>
       <c r="I35" s="4">
         <v>1E-3</v>
@@ -3528,16 +3528,16 @@
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <v>-0.09</v>
-      </c>
-      <c r="M35" s="5">
-        <v>0</v>
+        <v>-0.28499999999999998</v>
+      </c>
+      <c r="M35" s="4">
+        <v>-30</v>
       </c>
       <c r="N35" s="4">
         <v>1</v>
       </c>
-      <c r="O35" s="7" t="s">
-        <v>61</v>
+      <c r="O35" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -3545,25 +3545,25 @@
         <v>6</v>
       </c>
       <c r="B36" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C36" s="3">
-        <v>0.7</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D36" s="3">
-        <v>0.74166666666666703</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G36" s="4">
-        <v>-0.22</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H36" s="4">
-        <v>-0.22</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I36" s="4">
         <v>1E-3</v>
@@ -3575,16 +3575,16 @@
         <v>0</v>
       </c>
       <c r="L36" s="4">
-        <v>-0.09</v>
-      </c>
-      <c r="M36" s="5">
-        <v>0</v>
+        <v>0.31</v>
+      </c>
+      <c r="M36" s="4">
+        <v>-30</v>
       </c>
       <c r="N36" s="4">
         <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3592,25 +3592,25 @@
         <v>6</v>
       </c>
       <c r="B37" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C37" s="3">
-        <v>0.563194444444444</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D37" s="3">
-        <v>0.60486111111111096</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G37" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.22</v>
       </c>
       <c r="H37" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.22</v>
       </c>
       <c r="I37" s="4">
         <v>1E-3</v>
@@ -3622,16 +3622,16 @@
         <v>0</v>
       </c>
       <c r="L37" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="M37" s="5">
-        <v>0</v>
+        <v>-0.115</v>
+      </c>
+      <c r="M37" s="4">
+        <v>-30</v>
       </c>
       <c r="N37" s="4">
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3639,25 +3639,25 @@
         <v>6</v>
       </c>
       <c r="B38" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C38" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="D38" s="3">
-        <v>0.65277777777777801</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G38" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.15</v>
       </c>
       <c r="H38" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.15</v>
       </c>
       <c r="I38" s="4">
         <v>1E-3</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="L38" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="M38" s="5">
-        <v>0</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M38" s="4">
+        <v>-30</v>
       </c>
       <c r="N38" s="4">
         <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3689,43 +3689,43 @@
         <v>42087</v>
       </c>
       <c r="C39" s="3">
-        <v>0.65902777777777799</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D39" s="3">
-        <v>0.69027777777777799</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G39" s="4">
-        <v>-0.34499999999999997</v>
+        <v>0.32</v>
       </c>
       <c r="H39" s="4">
-        <v>-0.34499999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="I39" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
       </c>
       <c r="K39" s="4">
-        <v>0</v>
-      </c>
-      <c r="L39" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="M39" s="5">
-        <v>0</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L39" s="5">
+        <v>-0.745</v>
+      </c>
+      <c r="M39" s="4">
+        <v>-30</v>
       </c>
       <c r="N39" s="4">
         <v>0</v>
       </c>
-      <c r="O39" s="7" t="s">
-        <v>56</v>
+      <c r="O39" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3736,43 +3736,43 @@
         <v>42087</v>
       </c>
       <c r="C40" s="3">
-        <v>0.7</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D40" s="3">
-        <v>0.74166666666666703</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G40" s="4">
-        <v>-0.34499999999999997</v>
+        <v>0.79</v>
       </c>
       <c r="H40" s="4">
-        <v>-0.34499999999999997</v>
+        <v>0.78</v>
       </c>
       <c r="I40" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
       </c>
       <c r="K40" s="4">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L40" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="M40" s="5">
-        <v>0</v>
+        <v>-0.66500000000000004</v>
+      </c>
+      <c r="M40" s="4">
+        <v>-30</v>
       </c>
       <c r="N40" s="4">
         <v>0</v>
       </c>
-      <c r="O40" s="7" t="s">
-        <v>56</v>
+      <c r="O40" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3783,43 +3783,43 @@
         <v>42087</v>
       </c>
       <c r="C41" s="3">
-        <v>0.56319444444444444</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D41" s="3">
-        <v>0.60486111111111118</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G41" s="4">
-        <v>-0.38</v>
+        <v>0.99</v>
       </c>
       <c r="H41" s="4">
-        <v>-0.38</v>
+        <v>0.99</v>
       </c>
       <c r="I41" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
       </c>
       <c r="K41" s="4">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L41" s="4">
-        <v>-0.04</v>
-      </c>
-      <c r="M41" s="5">
-        <v>0</v>
+        <v>0.51</v>
+      </c>
+      <c r="M41" s="4">
+        <v>-30</v>
       </c>
       <c r="N41" s="4">
         <v>0</v>
       </c>
-      <c r="O41" s="7" t="s">
-        <v>50</v>
+      <c r="O41" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3830,43 +3830,43 @@
         <v>42087</v>
       </c>
       <c r="C42" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D42" s="3">
-        <v>0.65277777777777779</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G42" s="4">
-        <v>-0.38</v>
+        <v>1.41</v>
       </c>
       <c r="H42" s="4">
-        <v>-0.38</v>
+        <v>1.4</v>
       </c>
       <c r="I42" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
       </c>
       <c r="K42" s="4">
-        <v>0</v>
-      </c>
-      <c r="L42" s="4">
-        <v>-0.04</v>
-      </c>
-      <c r="M42" s="5">
-        <v>0</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L42" s="5">
+        <v>-0.745</v>
+      </c>
+      <c r="M42" s="4">
+        <v>-30</v>
       </c>
       <c r="N42" s="4">
         <v>0</v>
       </c>
-      <c r="O42" s="7" t="s">
-        <v>50</v>
+      <c r="O42" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3877,43 +3877,43 @@
         <v>42087</v>
       </c>
       <c r="C43" s="3">
-        <v>0.65902777777777777</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D43" s="3">
-        <v>0.69027777777777777</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G43" s="4">
-        <v>-0.38</v>
+        <v>2.08</v>
       </c>
       <c r="H43" s="4">
-        <v>-0.38</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I43" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
       </c>
       <c r="K43" s="4">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L43" s="4">
-        <v>-0.04</v>
-      </c>
-      <c r="M43" s="5">
-        <v>0</v>
+        <v>0.51</v>
+      </c>
+      <c r="M43" s="4">
+        <v>-30</v>
       </c>
       <c r="N43" s="4">
-        <v>1</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3924,43 +3924,43 @@
         <v>42087</v>
       </c>
       <c r="C44" s="3">
-        <v>0.70000000000000007</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D44" s="3">
-        <v>0.7416666666666667</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G44" s="4">
-        <v>-0.38</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="H44" s="4">
-        <v>-0.38</v>
+        <v>2.42</v>
       </c>
       <c r="I44" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
       </c>
       <c r="K44" s="4">
-        <v>0</v>
-      </c>
-      <c r="L44" s="4">
-        <v>-0.04</v>
-      </c>
-      <c r="M44" s="5">
-        <v>0</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L44" s="5">
+        <v>-0.745</v>
+      </c>
+      <c r="M44" s="4">
+        <v>-30</v>
       </c>
       <c r="N44" s="4">
         <v>0</v>
       </c>
-      <c r="O44" s="7" t="s">
-        <v>50</v>
+      <c r="O44" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3968,46 +3968,46 @@
         <v>6</v>
       </c>
       <c r="B45" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C45" s="3">
-        <v>0.51944444444444404</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D45" s="3">
-        <v>0.56111111111111101</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G45" s="4">
-        <v>-0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="H45" s="4">
-        <v>-0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="I45" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
         <v>16</v>
       </c>
       <c r="K45" s="4">
         <v>0</v>
       </c>
       <c r="L45" s="4">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="M45" s="4">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="N45" s="4">
         <v>0</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
+      <c r="O45" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -4015,46 +4015,46 @@
         <v>6</v>
       </c>
       <c r="B46" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C46" s="3">
-        <v>0.57083333333333297</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D46" s="3">
-        <v>0.60208333333333297</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G46" s="4">
-        <v>-0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="H46" s="4">
-        <v>-0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="I46" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>14</v>
       </c>
       <c r="K46" s="4">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="L46" s="4">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="M46" s="4">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="N46" s="4">
         <v>0</v>
       </c>
-      <c r="O46" s="7" t="s">
-        <v>59</v>
+      <c r="O46" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -4062,37 +4062,37 @@
         <v>6</v>
       </c>
       <c r="B47" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C47" s="3">
-        <v>0.61944444444444446</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D47" s="3">
-        <v>0.66111111111111109</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="4">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="H47" s="4">
-        <v>-0.28000000000000003</v>
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="H47">
+        <v>0.435</v>
       </c>
       <c r="I47" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
       </c>
       <c r="K47" s="4">
-        <v>0</v>
-      </c>
-      <c r="L47" s="4">
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0.78</v>
       </c>
       <c r="M47" s="4">
         <v>-30</v>
@@ -4100,8 +4100,8 @@
       <c r="N47" s="4">
         <v>0</v>
       </c>
-      <c r="O47" s="7" t="s">
-        <v>59</v>
+      <c r="O47" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -4109,37 +4109,37 @@
         <v>6</v>
       </c>
       <c r="B48" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C48" s="3">
-        <v>0.67708333333333304</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D48" s="3">
-        <v>0.71875</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="4">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="H48" s="4">
-        <v>-0.28000000000000003</v>
+        <v>11</v>
+      </c>
+      <c r="G48">
+        <v>0.995</v>
+      </c>
+      <c r="H48">
+        <v>1.0049999999999999</v>
       </c>
       <c r="I48" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
       </c>
       <c r="K48" s="4">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L48" s="4">
-        <v>0.31</v>
+        <v>-0.15</v>
       </c>
       <c r="M48" s="4">
         <v>-30</v>
@@ -4147,8 +4147,8 @@
       <c r="N48" s="4">
         <v>0</v>
       </c>
-      <c r="O48" s="7" t="s">
-        <v>59</v>
+      <c r="O48" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -4156,37 +4156,37 @@
         <v>6</v>
       </c>
       <c r="B49" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C49" s="3">
-        <v>0.72847222222222197</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D49" s="3">
-        <v>0.77013888888888904</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="4">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="H49" s="4">
-        <v>-0.28000000000000003</v>
+        <v>12</v>
+      </c>
+      <c r="G49">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="H49">
+        <v>1.7949999999999999</v>
       </c>
       <c r="I49" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0</v>
       </c>
       <c r="K49" s="4">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L49" s="4">
-        <v>0.31</v>
+        <v>-0.15</v>
       </c>
       <c r="M49" s="4">
         <v>-30</v>
@@ -4194,8 +4194,8 @@
       <c r="N49" s="4">
         <v>0</v>
       </c>
-      <c r="O49" s="7" t="s">
-        <v>59</v>
+      <c r="O49" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -4203,46 +4203,46 @@
         <v>6</v>
       </c>
       <c r="B50" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C50" s="3">
-        <v>0.51944444444444404</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D50" s="3">
-        <v>0.56111111111111101</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" s="4">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>2.8050000000000002</v>
+      </c>
+      <c r="H50">
+        <v>2.8149999999999999</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L50" s="4">
         <v>-0.15</v>
-      </c>
-      <c r="H50" s="4">
-        <v>-0.15</v>
-      </c>
-      <c r="I50" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K50" s="4">
-        <v>0</v>
-      </c>
-      <c r="L50" s="4">
-        <v>0.14000000000000001</v>
       </c>
       <c r="M50" s="4">
         <v>-30</v>
       </c>
       <c r="N50" s="4">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>62</v>
+        <v>1</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -4250,46 +4250,46 @@
         <v>6</v>
       </c>
       <c r="B51" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C51" s="3">
-        <v>0.57083333333333297</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D51" s="3">
-        <v>0.60208333333333297</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G51" s="4">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="H51" s="4">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="I51" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0</v>
       </c>
       <c r="K51" s="4">
         <v>0</v>
       </c>
       <c r="L51" s="4">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M51" s="4">
         <v>-30</v>
       </c>
       <c r="N51" s="4">
-        <v>1</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -4297,25 +4297,25 @@
         <v>6</v>
       </c>
       <c r="B52" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C52" s="3">
-        <v>0.61944444444444446</v>
+        <v>0.563194444444444</v>
       </c>
       <c r="D52" s="3">
-        <v>0.66111111111111109</v>
+        <v>0.60486111111111096</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G52" s="4">
-        <v>-0.15</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="H52" s="4">
-        <v>-0.15</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I52" s="4">
         <v>1E-3</v>
@@ -4327,16 +4327,16 @@
         <v>0</v>
       </c>
       <c r="L52" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M52" s="4">
-        <v>-30</v>
+        <v>-0.21</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0</v>
       </c>
       <c r="N52" s="4">
         <v>0</v>
       </c>
-      <c r="O52" s="7" t="s">
-        <v>62</v>
+      <c r="O52" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -4344,25 +4344,25 @@
         <v>6</v>
       </c>
       <c r="B53" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C53" s="3">
-        <v>0.67708333333333304</v>
+        <v>0.563194444444444</v>
       </c>
       <c r="D53" s="3">
-        <v>0.71875</v>
+        <v>0.60486111111111096</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G53" s="4">
-        <v>-0.15</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="H53" s="4">
-        <v>-0.15</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I53" s="4">
         <v>1E-3</v>
@@ -4374,16 +4374,16 @@
         <v>0</v>
       </c>
       <c r="L53" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M53" s="4">
-        <v>-30</v>
+        <v>0.09</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0</v>
       </c>
       <c r="N53" s="4">
         <v>0</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -4391,25 +4391,25 @@
         <v>6</v>
       </c>
       <c r="B54" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C54" s="3">
-        <v>0.72847222222222197</v>
+        <v>0.563194444444444</v>
       </c>
       <c r="D54" s="3">
-        <v>0.77013888888888904</v>
+        <v>0.60486111111111096</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G54" s="4">
-        <v>-0.15</v>
+        <v>-0.31</v>
       </c>
       <c r="H54" s="4">
-        <v>-0.15</v>
+        <v>-0.31</v>
       </c>
       <c r="I54" s="4">
         <v>1E-3</v>
@@ -4421,16 +4421,16 @@
         <v>0</v>
       </c>
       <c r="L54" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M54" s="4">
-        <v>-30</v>
+        <v>-0.26</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0</v>
       </c>
       <c r="N54" s="4">
         <v>0</v>
       </c>
-      <c r="O54" s="7" t="s">
-        <v>62</v>
+      <c r="O54" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -4450,13 +4450,13 @@
         <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G55" s="4">
-        <v>-0.15</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H55" s="4">
-        <v>-0.15</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I55" s="4">
         <v>1E-3</v>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="M55" s="5">
         <v>0</v>
@@ -4476,8 +4476,8 @@
       <c r="N55" s="4">
         <v>0</v>
       </c>
-      <c r="O55" s="7" t="s">
-        <v>62</v>
+      <c r="O55" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -4488,22 +4488,22 @@
         <v>42087</v>
       </c>
       <c r="C56" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.563194444444444</v>
       </c>
       <c r="D56" s="3">
-        <v>0.65277777777777801</v>
+        <v>0.60486111111111096</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G56" s="4">
-        <v>-0.15</v>
+        <v>-0.22</v>
       </c>
       <c r="H56" s="4">
-        <v>-0.15</v>
+        <v>-0.22</v>
       </c>
       <c r="I56" s="4">
         <v>1E-3</v>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4">
-        <v>0.14000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="M56" s="5">
         <v>0</v>
@@ -4524,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -4535,10 +4535,10 @@
         <v>42087</v>
       </c>
       <c r="C57" s="3">
-        <v>0.65902777777777799</v>
+        <v>0.563194444444444</v>
       </c>
       <c r="D57" s="3">
-        <v>0.69027777777777799</v>
+        <v>0.60486111111111096</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>38</v>
@@ -4582,22 +4582,22 @@
         <v>42087</v>
       </c>
       <c r="C58" s="3">
-        <v>0.7</v>
+        <v>0.56319444444444444</v>
       </c>
       <c r="D58" s="3">
-        <v>0.74166666666666703</v>
+        <v>0.60486111111111118</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G58" s="4">
-        <v>-0.15</v>
+        <v>-0.38</v>
       </c>
       <c r="H58" s="4">
-        <v>-0.15</v>
+        <v>-0.38</v>
       </c>
       <c r="I58" s="4">
         <v>1E-3</v>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4">
-        <v>0.14000000000000001</v>
+        <v>-0.04</v>
       </c>
       <c r="M58" s="5">
         <v>0</v>
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -4626,25 +4626,25 @@
         <v>6</v>
       </c>
       <c r="B59" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C59" s="3">
-        <v>0.51944444444444404</v>
+        <v>0.56319444444444444</v>
       </c>
       <c r="D59" s="3">
-        <v>0.56111111111111101</v>
+        <v>0.60486111111111118</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G59" s="4">
-        <v>-0.31</v>
+        <v>-0.375</v>
       </c>
       <c r="H59" s="4">
-        <v>-0.31</v>
+        <v>-0.375</v>
       </c>
       <c r="I59" s="4">
         <v>1E-3</v>
@@ -4656,16 +4656,16 @@
         <v>0</v>
       </c>
       <c r="L59" s="4">
-        <v>-0.28499999999999998</v>
-      </c>
-      <c r="M59" s="4">
-        <v>-30</v>
+        <v>0.26</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0</v>
       </c>
       <c r="N59" s="4">
         <v>0</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -4673,25 +4673,25 @@
         <v>6</v>
       </c>
       <c r="B60" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C60" s="3">
-        <v>0.57083333333333297</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D60" s="3">
-        <v>0.60208333333333297</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G60" s="4">
-        <v>-0.31</v>
+        <v>-0.38</v>
       </c>
       <c r="H60" s="4">
-        <v>-0.31</v>
+        <v>-0.38</v>
       </c>
       <c r="I60" s="4">
         <v>1E-3</v>
@@ -4703,16 +4703,16 @@
         <v>0</v>
       </c>
       <c r="L60" s="4">
-        <v>-0.28499999999999998</v>
-      </c>
-      <c r="M60" s="4">
-        <v>-30</v>
+        <v>-0.04</v>
+      </c>
+      <c r="M60" s="5">
+        <v>0</v>
       </c>
       <c r="N60" s="4">
-        <v>1</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="O60" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -4720,25 +4720,25 @@
         <v>6</v>
       </c>
       <c r="B61" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C61" s="3">
-        <v>0.61944444444444446</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D61" s="3">
-        <v>0.66111111111111109</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G61" s="4">
-        <v>-0.31</v>
+        <v>-0.375</v>
       </c>
       <c r="H61" s="4">
-        <v>-0.31</v>
+        <v>-0.375</v>
       </c>
       <c r="I61" s="4">
         <v>1E-3</v>
@@ -4750,16 +4750,16 @@
         <v>0</v>
       </c>
       <c r="L61" s="4">
-        <v>-0.28499999999999998</v>
-      </c>
-      <c r="M61" s="4">
-        <v>-30</v>
+        <v>0.26</v>
+      </c>
+      <c r="M61" s="5">
+        <v>0</v>
       </c>
       <c r="N61" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -4767,25 +4767,25 @@
         <v>6</v>
       </c>
       <c r="B62" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C62" s="3">
-        <v>0.67708333333333304</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D62" s="3">
-        <v>0.71875</v>
+        <v>0.65277777777777801</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G62" s="4">
-        <v>-0.31</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="H62" s="4">
-        <v>-0.31</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I62" s="4">
         <v>1E-3</v>
@@ -4797,16 +4797,16 @@
         <v>0</v>
       </c>
       <c r="L62" s="4">
-        <v>-0.28499999999999998</v>
-      </c>
-      <c r="M62" s="4">
-        <v>-30</v>
+        <v>-0.21</v>
+      </c>
+      <c r="M62" s="5">
+        <v>0</v>
       </c>
       <c r="N62" s="4">
         <v>1</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -4814,25 +4814,25 @@
         <v>6</v>
       </c>
       <c r="B63" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C63" s="3">
-        <v>0.72847222222222197</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D63" s="3">
-        <v>0.77013888888888904</v>
+        <v>0.65277777777777801</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G63" s="4">
-        <v>-0.31</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="H63" s="4">
-        <v>-0.31</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I63" s="4">
         <v>1E-3</v>
@@ -4844,16 +4844,16 @@
         <v>0</v>
       </c>
       <c r="L63" s="4">
-        <v>-0.28499999999999998</v>
-      </c>
-      <c r="M63" s="4">
-        <v>-30</v>
+        <v>0.09</v>
+      </c>
+      <c r="M63" s="5">
+        <v>0</v>
       </c>
       <c r="N63" s="4">
-        <v>1</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -4864,22 +4864,22 @@
         <v>42087</v>
       </c>
       <c r="C64" s="3">
-        <v>0.563194444444444</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D64" s="3">
-        <v>0.60486111111111096</v>
+        <v>0.65277777777777801</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G64" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.31</v>
       </c>
       <c r="H64" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.31</v>
       </c>
       <c r="I64" s="4">
         <v>1E-3</v>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="4">
-        <v>-0.21</v>
+        <v>-0.26</v>
       </c>
       <c r="M64" s="5">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -4920,13 +4920,13 @@
         <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G65" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H65" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I65" s="4">
         <v>1E-3</v>
@@ -4938,16 +4938,16 @@
         <v>0</v>
       </c>
       <c r="L65" s="4">
-        <v>-0.21</v>
+        <v>0.31</v>
       </c>
       <c r="M65" s="5">
         <v>0</v>
       </c>
       <c r="N65" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -4958,22 +4958,22 @@
         <v>42087</v>
       </c>
       <c r="C66" s="3">
-        <v>0.65902777777777799</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D66" s="3">
-        <v>0.69027777777777799</v>
+        <v>0.65277777777777801</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G66" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.22</v>
       </c>
       <c r="H66" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.22</v>
       </c>
       <c r="I66" s="4">
         <v>1E-3</v>
@@ -4985,16 +4985,16 @@
         <v>0</v>
       </c>
       <c r="L66" s="4">
-        <v>-0.21</v>
+        <v>-0.09</v>
       </c>
       <c r="M66" s="5">
         <v>0</v>
       </c>
       <c r="N66" s="4">
-        <v>1</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -5005,22 +5005,22 @@
         <v>42087</v>
       </c>
       <c r="C67" s="3">
-        <v>0.7</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D67" s="3">
-        <v>0.74166666666666703</v>
+        <v>0.65277777777777801</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G67" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.15</v>
       </c>
       <c r="H67" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.15</v>
       </c>
       <c r="I67" s="4">
         <v>1E-3</v>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="4">
-        <v>-0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M67" s="5">
         <v>0</v>
@@ -5040,8 +5040,8 @@
       <c r="N67" s="4">
         <v>0</v>
       </c>
-      <c r="O67" s="4" t="s">
-        <v>54</v>
+      <c r="O67" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -5052,22 +5052,22 @@
         <v>42087</v>
       </c>
       <c r="C68" s="3">
-        <v>0.563194444444444</v>
+        <v>0.65902777777777777</v>
       </c>
       <c r="D68" s="3">
-        <v>0.60486111111111096</v>
+        <v>0.69027777777777777</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G68" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.38</v>
       </c>
       <c r="H68" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.38</v>
       </c>
       <c r="I68" s="4">
         <v>1E-3</v>
@@ -5079,16 +5079,16 @@
         <v>0</v>
       </c>
       <c r="L68" s="4">
-        <v>0.31</v>
+        <v>-0.04</v>
       </c>
       <c r="M68" s="5">
         <v>0</v>
       </c>
       <c r="N68" s="4">
-        <v>0</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -5099,22 +5099,22 @@
         <v>42087</v>
       </c>
       <c r="C69" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.65902777777777777</v>
       </c>
       <c r="D69" s="3">
-        <v>0.65277777777777801</v>
+        <v>0.69027777777777777</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G69" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.375</v>
       </c>
       <c r="H69" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.375</v>
       </c>
       <c r="I69" s="4">
         <v>1E-3</v>
@@ -5126,16 +5126,16 @@
         <v>0</v>
       </c>
       <c r="L69" s="4">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="M69" s="5">
         <v>0</v>
       </c>
       <c r="N69" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -5155,13 +5155,13 @@
         <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G70" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="H70" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I70" s="4">
         <v>1E-3</v>
@@ -5173,16 +5173,16 @@
         <v>0</v>
       </c>
       <c r="L70" s="4">
-        <v>0.31</v>
+        <v>-0.21</v>
       </c>
       <c r="M70" s="5">
         <v>0</v>
       </c>
       <c r="N70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -5193,22 +5193,22 @@
         <v>42087</v>
       </c>
       <c r="C71" s="3">
-        <v>0.7</v>
+        <v>0.65902777777777799</v>
       </c>
       <c r="D71" s="3">
-        <v>0.74166666666666703</v>
+        <v>0.69027777777777799</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G71" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="H71" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I71" s="4">
         <v>1E-3</v>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="4">
-        <v>0.31</v>
+        <v>0.09</v>
       </c>
       <c r="M71" s="5">
         <v>0</v>
@@ -5228,8 +5228,8 @@
       <c r="N71" s="4">
         <v>0</v>
       </c>
-      <c r="O71" s="4" t="s">
-        <v>60</v>
+      <c r="O71" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -5237,25 +5237,25 @@
         <v>6</v>
       </c>
       <c r="B72" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C72" s="3">
-        <v>0.51944444444444404</v>
+        <v>0.65902777777777799</v>
       </c>
       <c r="D72" s="3">
-        <v>0.56111111111111101</v>
+        <v>0.69027777777777799</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G72" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.31</v>
       </c>
       <c r="H72" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.31</v>
       </c>
       <c r="I72" s="4">
         <v>1E-3</v>
@@ -5267,16 +5267,16 @@
         <v>0</v>
       </c>
       <c r="L72" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="M72" s="4">
-        <v>-30</v>
+        <v>-0.26</v>
+      </c>
+      <c r="M72" s="5">
+        <v>0</v>
       </c>
       <c r="N72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -5284,25 +5284,25 @@
         <v>6</v>
       </c>
       <c r="B73" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C73" s="3">
-        <v>0.57083333333333297</v>
+        <v>0.65902777777777799</v>
       </c>
       <c r="D73" s="3">
-        <v>0.60208333333333297</v>
+        <v>0.69027777777777799</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G73" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H73" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I73" s="4">
         <v>1E-3</v>
@@ -5314,16 +5314,16 @@
         <v>0</v>
       </c>
       <c r="L73" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="M73" s="4">
-        <v>-30</v>
+        <v>0.31</v>
+      </c>
+      <c r="M73" s="5">
+        <v>0</v>
       </c>
       <c r="N73" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -5331,25 +5331,25 @@
         <v>6</v>
       </c>
       <c r="B74" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C74" s="3">
-        <v>0.61944444444444446</v>
+        <v>0.65902777777777799</v>
       </c>
       <c r="D74" s="3">
-        <v>0.66111111111111109</v>
+        <v>0.69027777777777799</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G74" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.22</v>
       </c>
       <c r="H74" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.22</v>
       </c>
       <c r="I74" s="4">
         <v>1E-3</v>
@@ -5361,16 +5361,16 @@
         <v>0</v>
       </c>
       <c r="L74" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="M74" s="4">
-        <v>-30</v>
+        <v>-0.09</v>
+      </c>
+      <c r="M74" s="5">
+        <v>0</v>
       </c>
       <c r="N74" s="4">
         <v>1</v>
       </c>
-      <c r="O74" s="4" t="s">
-        <v>55</v>
+      <c r="O74" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -5378,25 +5378,25 @@
         <v>6</v>
       </c>
       <c r="B75" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C75" s="3">
-        <v>0.67708333333333304</v>
+        <v>0.65902777777777799</v>
       </c>
       <c r="D75" s="3">
-        <v>0.71875</v>
+        <v>0.69027777777777799</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G75" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.15</v>
       </c>
       <c r="H75" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.15</v>
       </c>
       <c r="I75" s="4">
         <v>1E-3</v>
@@ -5408,16 +5408,16 @@
         <v>0</v>
       </c>
       <c r="L75" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="M75" s="4">
-        <v>-30</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M75" s="5">
+        <v>0</v>
       </c>
       <c r="N75" s="4">
-        <v>1</v>
-      </c>
-      <c r="O75" s="4" t="s">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -5425,25 +5425,25 @@
         <v>6</v>
       </c>
       <c r="B76" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C76" s="3">
-        <v>0.72847222222222197</v>
+        <v>0.7</v>
       </c>
       <c r="D76" s="3">
-        <v>0.77013888888888904</v>
+        <v>0.74166666666666703</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G76" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="H76" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I76" s="4">
         <v>1E-3</v>
@@ -5455,16 +5455,16 @@
         <v>0</v>
       </c>
       <c r="L76" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="M76" s="4">
-        <v>-30</v>
+        <v>-0.21</v>
+      </c>
+      <c r="M76" s="5">
+        <v>0</v>
       </c>
       <c r="N76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -5475,22 +5475,22 @@
         <v>42087</v>
       </c>
       <c r="C77" s="3">
-        <v>0.56319444444444444</v>
+        <v>0.7</v>
       </c>
       <c r="D77" s="3">
-        <v>0.60486111111111118</v>
+        <v>0.74166666666666703</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G77" s="4">
-        <v>-0.375</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="H77" s="4">
-        <v>-0.375</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I77" s="4">
         <v>1E-3</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="4">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="M77" s="5">
         <v>0</v>
@@ -5510,8 +5510,8 @@
       <c r="N77" s="4">
         <v>0</v>
       </c>
-      <c r="O77" s="4" t="s">
-        <v>52</v>
+      <c r="O77" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -5522,22 +5522,22 @@
         <v>42087</v>
       </c>
       <c r="C78" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.7</v>
       </c>
       <c r="D78" s="3">
-        <v>0.65277777777777779</v>
+        <v>0.74166666666666703</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G78" s="4">
-        <v>-0.375</v>
+        <v>-0.31</v>
       </c>
       <c r="H78" s="4">
-        <v>-0.375</v>
+        <v>-0.31</v>
       </c>
       <c r="I78" s="4">
         <v>1E-3</v>
@@ -5549,16 +5549,16 @@
         <v>0</v>
       </c>
       <c r="L78" s="4">
-        <v>0.26</v>
+        <v>-0.26</v>
       </c>
       <c r="M78" s="5">
         <v>0</v>
       </c>
       <c r="N78" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -5569,22 +5569,22 @@
         <v>42087</v>
       </c>
       <c r="C79" s="3">
-        <v>0.65902777777777777</v>
+        <v>0.7</v>
       </c>
       <c r="D79" s="3">
-        <v>0.69027777777777777</v>
+        <v>0.74166666666666703</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G79" s="4">
-        <v>-0.375</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H79" s="4">
-        <v>-0.375</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I79" s="4">
         <v>1E-3</v>
@@ -5596,16 +5596,16 @@
         <v>0</v>
       </c>
       <c r="L79" s="4">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="M79" s="5">
         <v>0</v>
       </c>
       <c r="N79" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -5616,22 +5616,22 @@
         <v>42087</v>
       </c>
       <c r="C80" s="3">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="D80" s="3">
-        <v>0.7416666666666667</v>
+        <v>0.74166666666666703</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G80" s="4">
-        <v>-0.375</v>
+        <v>-0.22</v>
       </c>
       <c r="H80" s="4">
-        <v>-0.375</v>
+        <v>-0.22</v>
       </c>
       <c r="I80" s="4">
         <v>1E-3</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="4">
-        <v>0.26</v>
+        <v>-0.09</v>
       </c>
       <c r="M80" s="5">
         <v>0</v>
@@ -5651,8 +5651,8 @@
       <c r="N80" s="4">
         <v>0</v>
       </c>
-      <c r="O80" s="4" t="s">
-        <v>52</v>
+      <c r="O80" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -5660,25 +5660,25 @@
         <v>6</v>
       </c>
       <c r="B81" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C81" s="3">
-        <v>0.51944444444444404</v>
+        <v>0.7</v>
       </c>
       <c r="D81" s="3">
-        <v>0.56111111111111101</v>
+        <v>0.74166666666666703</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G81" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.15</v>
       </c>
       <c r="H81" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.15</v>
       </c>
       <c r="I81" s="4">
         <v>1E-3</v>
@@ -5690,16 +5690,16 @@
         <v>0</v>
       </c>
       <c r="L81" s="4">
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="M81" s="4">
-        <v>-30</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M81" s="5">
+        <v>0</v>
       </c>
       <c r="N81" s="4">
         <v>0</v>
       </c>
-      <c r="O81" s="4" t="s">
-        <v>53</v>
+      <c r="O81" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -5707,25 +5707,25 @@
         <v>6</v>
       </c>
       <c r="B82" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C82" s="3">
-        <v>0.57083333333333297</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="D82" s="3">
-        <v>0.60208333333333297</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G82" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.38</v>
       </c>
       <c r="H82" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.38</v>
       </c>
       <c r="I82" s="4">
         <v>1E-3</v>
@@ -5737,16 +5737,16 @@
         <v>0</v>
       </c>
       <c r="L82" s="4">
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="M82" s="4">
-        <v>-30</v>
+        <v>-0.04</v>
+      </c>
+      <c r="M82" s="5">
+        <v>0</v>
       </c>
       <c r="N82" s="4">
-        <v>1</v>
-      </c>
-      <c r="O82" s="4" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="O82" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -5754,25 +5754,25 @@
         <v>6</v>
       </c>
       <c r="B83" s="2">
-        <v>42086</v>
+        <v>42087</v>
       </c>
       <c r="C83" s="3">
-        <v>0.61944444444444446</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="D83" s="3">
-        <v>0.66111111111111109</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G83" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.375</v>
       </c>
       <c r="H83" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.375</v>
       </c>
       <c r="I83" s="4">
         <v>1E-3</v>
@@ -5784,776 +5784,24 @@
         <v>0</v>
       </c>
       <c r="L83" s="4">
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="M83" s="4">
-        <v>-30</v>
+        <v>0.26</v>
+      </c>
+      <c r="M83" s="5">
+        <v>0</v>
       </c>
       <c r="N83" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="2">
-        <v>42086</v>
-      </c>
-      <c r="C84" s="3">
-        <v>0.67708333333333304</v>
-      </c>
-      <c r="D84" s="3">
-        <v>0.71875</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" s="4">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="H84" s="4">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="I84" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J84" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K84" s="4">
-        <v>0</v>
-      </c>
-      <c r="L84" s="4">
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="M84" s="4">
-        <v>-30</v>
-      </c>
-      <c r="N84" s="4">
-        <v>1</v>
-      </c>
-      <c r="O84" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="2">
-        <v>42086</v>
-      </c>
-      <c r="C85" s="3">
-        <v>0.72847222222222197</v>
-      </c>
-      <c r="D85" s="3">
-        <v>0.77013888888888904</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" s="4">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="H85" s="4">
-        <v>-0.36499999999999999</v>
-      </c>
-      <c r="I85" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K85" s="4">
-        <v>0</v>
-      </c>
-      <c r="L85" s="4">
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="M85" s="4">
-        <v>-30</v>
-      </c>
-      <c r="N85" s="4">
-        <v>1</v>
-      </c>
-      <c r="O85" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" t="s">
-        <v>6</v>
-      </c>
-      <c r="B86" s="2">
-        <v>42087</v>
-      </c>
-      <c r="C86" s="3">
-        <v>0.563194444444444</v>
-      </c>
-      <c r="D86" s="3">
-        <v>0.60486111111111096</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" s="4">
-        <v>-0.31</v>
-      </c>
-      <c r="H86" s="4">
-        <v>-0.31</v>
-      </c>
-      <c r="I86" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K86" s="4">
-        <v>0</v>
-      </c>
-      <c r="L86" s="4">
-        <v>-0.26</v>
-      </c>
-      <c r="M86" s="5">
-        <v>0</v>
-      </c>
-      <c r="N86" s="4">
-        <v>0</v>
-      </c>
-      <c r="O86" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" s="2">
-        <v>42087</v>
-      </c>
-      <c r="C87" s="3">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="D87" s="3">
-        <v>0.65277777777777801</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" s="4">
-        <v>-0.31</v>
-      </c>
-      <c r="H87" s="4">
-        <v>-0.31</v>
-      </c>
-      <c r="I87" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K87" s="4">
-        <v>0</v>
-      </c>
-      <c r="L87" s="4">
-        <v>-0.26</v>
-      </c>
-      <c r="M87" s="5">
-        <v>0</v>
-      </c>
-      <c r="N87" s="4">
-        <v>0</v>
-      </c>
-      <c r="O87" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" s="2">
-        <v>42087</v>
-      </c>
-      <c r="C88" s="3">
-        <v>0.65902777777777799</v>
-      </c>
-      <c r="D88" s="3">
-        <v>0.69027777777777799</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" s="4">
-        <v>-0.31</v>
-      </c>
-      <c r="H88" s="4">
-        <v>-0.31</v>
-      </c>
-      <c r="I88" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K88" s="4">
-        <v>0</v>
-      </c>
-      <c r="L88" s="4">
-        <v>-0.26</v>
-      </c>
-      <c r="M88" s="5">
-        <v>0</v>
-      </c>
-      <c r="N88" s="4">
-        <v>1</v>
-      </c>
-      <c r="O88" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="2">
-        <v>42087</v>
-      </c>
-      <c r="C89" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="D89" s="3">
-        <v>0.74166666666666703</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" s="4">
-        <v>-0.31</v>
-      </c>
-      <c r="H89" s="4">
-        <v>-0.31</v>
-      </c>
-      <c r="I89" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K89" s="4">
-        <v>0</v>
-      </c>
-      <c r="L89" s="4">
-        <v>-0.26</v>
-      </c>
-      <c r="M89" s="5">
-        <v>0</v>
-      </c>
-      <c r="N89" s="4">
-        <v>1</v>
-      </c>
-      <c r="O89" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" s="2">
-        <v>42086</v>
-      </c>
-      <c r="C90" s="3">
-        <v>0.51944444444444449</v>
-      </c>
-      <c r="D90" s="3">
-        <v>0.56111111111111112</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" s="4">
-        <v>-0.375</v>
-      </c>
-      <c r="H90" s="4">
-        <v>-0.375</v>
-      </c>
-      <c r="I90" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K90" s="4">
-        <v>0</v>
-      </c>
-      <c r="L90" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="M90" s="4">
-        <v>-30</v>
-      </c>
-      <c r="N90" s="4">
-        <v>0</v>
-      </c>
-      <c r="O90" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="2">
-        <v>42086</v>
-      </c>
-      <c r="C91" s="3">
-        <v>0.5708333333333333</v>
-      </c>
-      <c r="D91" s="3">
-        <v>0.6020833333333333</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" s="4">
-        <v>-0.375</v>
-      </c>
-      <c r="H91" s="4">
-        <v>-0.375</v>
-      </c>
-      <c r="I91" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K91" s="4">
-        <v>0</v>
-      </c>
-      <c r="L91" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="M91" s="4">
-        <v>-30</v>
-      </c>
-      <c r="N91" s="4">
-        <v>0</v>
-      </c>
-      <c r="O91" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="A92" t="s">
-        <v>6</v>
-      </c>
-      <c r="B92" s="2">
-        <v>42086</v>
-      </c>
-      <c r="C92" s="3">
-        <v>0.61944444444444446</v>
-      </c>
-      <c r="D92" s="3">
-        <v>0.66111111111111109</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" s="4">
-        <v>-0.375</v>
-      </c>
-      <c r="H92" s="4">
-        <v>-0.375</v>
-      </c>
-      <c r="I92" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K92" s="4">
-        <v>0</v>
-      </c>
-      <c r="L92" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="M92" s="4">
-        <v>-30</v>
-      </c>
-      <c r="N92" s="4">
-        <v>0</v>
-      </c>
-      <c r="O92" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
-      <c r="A93" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" s="2">
-        <v>42086</v>
-      </c>
-      <c r="C93" s="3">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="D93" s="3">
-        <v>0.71875</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" s="4">
-        <v>-0.375</v>
-      </c>
-      <c r="H93" s="4">
-        <v>-0.375</v>
-      </c>
-      <c r="I93" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K93" s="4">
-        <v>0</v>
-      </c>
-      <c r="L93" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="M93" s="4">
-        <v>-30</v>
-      </c>
-      <c r="N93" s="4">
-        <v>0</v>
-      </c>
-      <c r="O93" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="A94" t="s">
-        <v>6</v>
-      </c>
-      <c r="B94" s="2">
-        <v>42086</v>
-      </c>
-      <c r="C94" s="3">
-        <v>0.7284722222222223</v>
-      </c>
-      <c r="D94" s="3">
-        <v>0.77013888888888893</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" s="4">
-        <v>-0.375</v>
-      </c>
-      <c r="H94" s="4">
-        <v>-0.375</v>
-      </c>
-      <c r="I94" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K94" s="4">
-        <v>0</v>
-      </c>
-      <c r="L94" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="M94" s="4">
-        <v>-30</v>
-      </c>
-      <c r="N94" s="4">
-        <v>0</v>
-      </c>
-      <c r="O94" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="A95" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" s="2">
-        <v>42086</v>
-      </c>
-      <c r="C95" s="3">
-        <v>0.51944444444444449</v>
-      </c>
-      <c r="D95" s="3">
-        <v>0.56111111111111112</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F95" t="s">
-        <v>17</v>
-      </c>
-      <c r="G95" s="4">
-        <v>-0.38</v>
-      </c>
-      <c r="H95" s="4">
-        <v>-0.38</v>
-      </c>
-      <c r="I95" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K95" s="4">
-        <v>0</v>
-      </c>
-      <c r="L95" s="4">
-        <v>-5.5E-2</v>
-      </c>
-      <c r="M95" s="4">
-        <v>-30</v>
-      </c>
-      <c r="N95" s="4">
-        <v>1</v>
-      </c>
-      <c r="O95" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="A96" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" s="2">
-        <v>42086</v>
-      </c>
-      <c r="C96" s="3">
-        <v>0.5708333333333333</v>
-      </c>
-      <c r="D96" s="3">
-        <v>0.6020833333333333</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" s="4">
-        <v>-0.38</v>
-      </c>
-      <c r="H96" s="4">
-        <v>-0.38</v>
-      </c>
-      <c r="I96" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K96" s="4">
-        <v>0</v>
-      </c>
-      <c r="L96" s="4">
-        <v>-5.5E-2</v>
-      </c>
-      <c r="M96" s="4">
-        <v>-30</v>
-      </c>
-      <c r="N96" s="4">
-        <v>1</v>
-      </c>
-      <c r="O96" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
-      <c r="A97" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" s="2">
-        <v>42086</v>
-      </c>
-      <c r="C97" s="3">
-        <v>0.61944444444444446</v>
-      </c>
-      <c r="D97" s="3">
-        <v>0.66111111111111109</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" s="4">
-        <v>-0.38</v>
-      </c>
-      <c r="H97" s="4">
-        <v>-0.38</v>
-      </c>
-      <c r="I97" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K97" s="4">
-        <v>0</v>
-      </c>
-      <c r="L97" s="4">
-        <v>-5.5E-2</v>
-      </c>
-      <c r="M97" s="4">
-        <v>-30</v>
-      </c>
-      <c r="N97" s="4">
-        <v>1</v>
-      </c>
-      <c r="O97" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="A98" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="2">
-        <v>42086</v>
-      </c>
-      <c r="C98" s="3">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="D98" s="3">
-        <v>0.71875</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" s="4">
-        <v>-0.38</v>
-      </c>
-      <c r="H98" s="4">
-        <v>-0.38</v>
-      </c>
-      <c r="I98" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K98" s="4">
-        <v>0</v>
-      </c>
-      <c r="L98" s="4">
-        <v>-5.5E-2</v>
-      </c>
-      <c r="M98" s="4">
-        <v>-30</v>
-      </c>
-      <c r="N98" s="4">
-        <v>1</v>
-      </c>
-      <c r="O98" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="A99" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="2">
-        <v>42086</v>
-      </c>
-      <c r="C99" s="3">
-        <v>0.7284722222222223</v>
-      </c>
-      <c r="D99" s="3">
-        <v>0.77013888888888893</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" s="4">
-        <v>-0.38</v>
-      </c>
-      <c r="H99" s="4">
-        <v>-0.38</v>
-      </c>
-      <c r="I99" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K99" s="4">
-        <v>0</v>
-      </c>
-      <c r="L99" s="4">
-        <v>-5.5E-2</v>
-      </c>
-      <c r="M99" s="4">
-        <v>-30</v>
-      </c>
-      <c r="N99" s="4">
-        <v>0</v>
-      </c>
-      <c r="O99" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:O99">
-    <sortCondition ref="E2:E99"/>
-    <sortCondition ref="O2:O99"/>
     <sortCondition ref="B2:B99"/>
     <sortCondition ref="C2:C99"/>
+    <sortCondition ref="E2:E99"/>
+    <sortCondition ref="F2:F99"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Metadata/InstrumentMetadata_RanchoGuadalupe.xlsx
+++ b/Metadata/InstrumentMetadata_RanchoGuadalupe.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="67">
   <si>
     <t>Site</t>
   </si>
@@ -1874,12 +1874,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3686,46 +3686,46 @@
         <v>6</v>
       </c>
       <c r="B39" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C39" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="D39" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.71875</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G39" s="4">
-        <v>0.32</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="H39" s="4">
-        <v>0.33</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I39" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J39" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K39" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L39" s="5">
-        <v>-0.745</v>
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>-0.22500000000000001</v>
       </c>
       <c r="M39" s="4">
         <v>-30</v>
       </c>
       <c r="N39" s="4">
-        <v>0</v>
-      </c>
-      <c r="O39" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3733,46 +3733,46 @@
         <v>6</v>
       </c>
       <c r="B40" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C40" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="D40" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.71875</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G40" s="4">
-        <v>0.79</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="H40" s="4">
-        <v>0.78</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I40" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K40" s="4">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L40" s="4">
-        <v>-0.66500000000000004</v>
+        <v>0.09</v>
       </c>
       <c r="M40" s="4">
         <v>-30</v>
       </c>
       <c r="N40" s="4">
-        <v>0</v>
-      </c>
-      <c r="O40" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3780,46 +3780,46 @@
         <v>6</v>
       </c>
       <c r="B41" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C41" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="D41" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.71875</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G41" s="4">
-        <v>0.99</v>
+        <v>-0.31</v>
       </c>
       <c r="H41" s="4">
-        <v>0.99</v>
+        <v>-0.31</v>
       </c>
       <c r="I41" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K41" s="4">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="L41" s="4">
-        <v>0.51</v>
+        <v>-0.28499999999999998</v>
       </c>
       <c r="M41" s="4">
         <v>-30</v>
       </c>
       <c r="N41" s="4">
-        <v>0</v>
-      </c>
-      <c r="O41" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3827,37 +3827,37 @@
         <v>6</v>
       </c>
       <c r="B42" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C42" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="D42" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.71875</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G42" s="4">
-        <v>1.41</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H42" s="4">
-        <v>1.4</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I42" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K42" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L42" s="5">
-        <v>-0.745</v>
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0.31</v>
       </c>
       <c r="M42" s="4">
         <v>-30</v>
@@ -3865,8 +3865,8 @@
       <c r="N42" s="4">
         <v>0</v>
       </c>
-      <c r="O42" t="s">
-        <v>43</v>
+      <c r="O42" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3874,37 +3874,37 @@
         <v>6</v>
       </c>
       <c r="B43" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C43" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="D43" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.71875</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G43" s="4">
-        <v>2.08</v>
+        <v>-0.22</v>
       </c>
       <c r="H43" s="4">
-        <v>2.0699999999999998</v>
+        <v>-0.22</v>
       </c>
       <c r="I43" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K43" s="4">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="L43" s="4">
-        <v>0.51</v>
+        <v>-0.115</v>
       </c>
       <c r="M43" s="4">
         <v>-30</v>
@@ -3912,8 +3912,8 @@
       <c r="N43" s="4">
         <v>0</v>
       </c>
-      <c r="O43" t="s">
-        <v>29</v>
+      <c r="O43" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3921,37 +3921,37 @@
         <v>6</v>
       </c>
       <c r="B44" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C44" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.67708333333333304</v>
       </c>
       <c r="D44" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.71875</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G44" s="4">
-        <v>2.4300000000000002</v>
+        <v>-0.15</v>
       </c>
       <c r="H44" s="4">
-        <v>2.42</v>
+        <v>-0.15</v>
       </c>
       <c r="I44" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J44" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
         <v>0.14000000000000001</v>
-      </c>
-      <c r="L44" s="5">
-        <v>-0.745</v>
       </c>
       <c r="M44" s="4">
         <v>-30</v>
@@ -3959,8 +3959,8 @@
       <c r="N44" s="4">
         <v>0</v>
       </c>
-      <c r="O44" t="s">
-        <v>44</v>
+      <c r="O44" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3968,46 +3968,46 @@
         <v>6</v>
       </c>
       <c r="B45" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C45" s="3">
-        <v>0.48194444444444401</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="D45" s="3">
-        <v>0.74722222222222201</v>
+        <v>0.71875</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G45" s="4">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="H45" s="4">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="I45" s="4">
-        <v>0</v>
-      </c>
-      <c r="J45" t="s">
+        <v>1E-3</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K45" s="4">
         <v>0</v>
       </c>
       <c r="L45" s="4">
-        <v>0</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="M45" s="4">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="N45" s="4">
-        <v>0</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -4015,46 +4015,46 @@
         <v>6</v>
       </c>
       <c r="B46" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C46" s="3">
-        <v>0.48194444444444445</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="D46" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.71875</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G46" s="4">
-        <v>0</v>
+        <v>-0.375</v>
       </c>
       <c r="H46" s="4">
-        <v>0</v>
+        <v>-0.375</v>
       </c>
       <c r="I46" s="4">
-        <v>0</v>
-      </c>
-      <c r="J46" t="s">
-        <v>14</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K46" s="4">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="L46" s="4">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="M46" s="4">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="N46" s="4">
         <v>0</v>
       </c>
-      <c r="O46" s="6" t="s">
-        <v>65</v>
+      <c r="O46" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -4062,46 +4062,46 @@
         <v>6</v>
       </c>
       <c r="B47" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C47" s="3">
-        <v>0.48194444444444445</v>
+        <v>0.72847222222222197</v>
       </c>
       <c r="D47" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.77013888888888904</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="H47">
-        <v>0.435</v>
+        <v>19</v>
+      </c>
+      <c r="G47" s="4">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="H47" s="4">
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I47" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J47" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K47" s="4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L47" s="5">
-        <v>0.78</v>
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>-0.22500000000000001</v>
       </c>
       <c r="M47" s="4">
         <v>-30</v>
       </c>
       <c r="N47" s="4">
-        <v>0</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -4109,46 +4109,46 @@
         <v>6</v>
       </c>
       <c r="B48" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C48" s="3">
-        <v>0.48194444444444445</v>
+        <v>0.72847222222222197</v>
       </c>
       <c r="D48" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.77013888888888904</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48">
-        <v>0.995</v>
-      </c>
-      <c r="H48">
-        <v>1.0049999999999999</v>
+        <v>20</v>
+      </c>
+      <c r="G48" s="4">
+        <v>-0.34499999999999997</v>
+      </c>
+      <c r="H48" s="4">
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I48" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J48" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K48" s="4">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="L48" s="4">
-        <v>-0.15</v>
+        <v>0.09</v>
       </c>
       <c r="M48" s="4">
         <v>-30</v>
       </c>
       <c r="N48" s="4">
-        <v>0</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -4156,46 +4156,46 @@
         <v>6</v>
       </c>
       <c r="B49" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C49" s="3">
-        <v>0.48194444444444445</v>
+        <v>0.72847222222222197</v>
       </c>
       <c r="D49" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.77013888888888904</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49">
-        <v>1.7849999999999999</v>
-      </c>
-      <c r="H49">
-        <v>1.7949999999999999</v>
+        <v>21</v>
+      </c>
+      <c r="G49" s="4">
+        <v>-0.31</v>
+      </c>
+      <c r="H49" s="4">
+        <v>-0.31</v>
       </c>
       <c r="I49" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J49" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K49" s="4">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="L49" s="4">
-        <v>-0.15</v>
+        <v>-0.28499999999999998</v>
       </c>
       <c r="M49" s="4">
         <v>-30</v>
       </c>
       <c r="N49" s="4">
-        <v>0</v>
-      </c>
-      <c r="O49" s="6" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -4203,46 +4203,46 @@
         <v>6</v>
       </c>
       <c r="B50" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C50" s="3">
-        <v>0.48194444444444445</v>
+        <v>0.72847222222222197</v>
       </c>
       <c r="D50" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.77013888888888904</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50">
-        <v>2.8050000000000002</v>
-      </c>
-      <c r="H50">
-        <v>2.8149999999999999</v>
+        <v>22</v>
+      </c>
+      <c r="G50" s="4">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="H50" s="4">
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I50" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J50" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K50" s="4">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="L50" s="4">
-        <v>-0.15</v>
+        <v>0.31</v>
       </c>
       <c r="M50" s="4">
         <v>-30</v>
       </c>
       <c r="N50" s="4">
-        <v>1</v>
-      </c>
-      <c r="O50" s="6" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -4250,37 +4250,37 @@
         <v>6</v>
       </c>
       <c r="B51" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C51" s="3">
-        <v>0.48194444444444445</v>
+        <v>0.72847222222222197</v>
       </c>
       <c r="D51" s="3">
-        <v>0.74722222222222223</v>
+        <v>0.77013888888888904</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G51" s="4">
-        <v>0</v>
+        <v>-0.22</v>
       </c>
       <c r="H51" s="4">
-        <v>0</v>
+        <v>-0.22</v>
       </c>
       <c r="I51" s="4">
-        <v>0</v>
-      </c>
-      <c r="J51" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="K51" s="4">
         <v>0</v>
       </c>
       <c r="L51" s="4">
-        <v>0</v>
+        <v>-0.115</v>
       </c>
       <c r="M51" s="4">
         <v>-30</v>
@@ -4288,8 +4288,8 @@
       <c r="N51" s="4">
         <v>0</v>
       </c>
-      <c r="O51" s="6" t="s">
-        <v>66</v>
+      <c r="O51" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -4297,25 +4297,25 @@
         <v>6</v>
       </c>
       <c r="B52" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C52" s="3">
-        <v>0.563194444444444</v>
+        <v>0.72847222222222197</v>
       </c>
       <c r="D52" s="3">
-        <v>0.60486111111111096</v>
+        <v>0.77013888888888904</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G52" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.15</v>
       </c>
       <c r="H52" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.15</v>
       </c>
       <c r="I52" s="4">
         <v>1E-3</v>
@@ -4327,16 +4327,16 @@
         <v>0</v>
       </c>
       <c r="L52" s="4">
-        <v>-0.21</v>
-      </c>
-      <c r="M52" s="5">
-        <v>0</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M52" s="4">
+        <v>-30</v>
       </c>
       <c r="N52" s="4">
         <v>0</v>
       </c>
-      <c r="O52" s="4" t="s">
-        <v>54</v>
+      <c r="O52" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -4344,25 +4344,25 @@
         <v>6</v>
       </c>
       <c r="B53" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C53" s="3">
-        <v>0.563194444444444</v>
+        <v>0.7284722222222223</v>
       </c>
       <c r="D53" s="3">
-        <v>0.60486111111111096</v>
+        <v>0.77013888888888893</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G53" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.38</v>
       </c>
       <c r="H53" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.38</v>
       </c>
       <c r="I53" s="4">
         <v>1E-3</v>
@@ -4374,16 +4374,16 @@
         <v>0</v>
       </c>
       <c r="L53" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="M53" s="5">
-        <v>0</v>
+        <v>-5.5E-2</v>
+      </c>
+      <c r="M53" s="4">
+        <v>-30</v>
       </c>
       <c r="N53" s="4">
         <v>0</v>
       </c>
-      <c r="O53" s="7" t="s">
-        <v>56</v>
+      <c r="O53" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -4391,25 +4391,25 @@
         <v>6</v>
       </c>
       <c r="B54" s="2">
-        <v>42087</v>
+        <v>42086</v>
       </c>
       <c r="C54" s="3">
-        <v>0.563194444444444</v>
+        <v>0.7284722222222223</v>
       </c>
       <c r="D54" s="3">
-        <v>0.60486111111111096</v>
+        <v>0.77013888888888893</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G54" s="4">
-        <v>-0.31</v>
+        <v>-0.375</v>
       </c>
       <c r="H54" s="4">
-        <v>-0.31</v>
+        <v>-0.375</v>
       </c>
       <c r="I54" s="4">
         <v>1E-3</v>
@@ -4421,16 +4421,16 @@
         <v>0</v>
       </c>
       <c r="L54" s="4">
-        <v>-0.26</v>
-      </c>
-      <c r="M54" s="5">
-        <v>0</v>
+        <v>0.26</v>
+      </c>
+      <c r="M54" s="4">
+        <v>-30</v>
       </c>
       <c r="N54" s="4">
         <v>0</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -4441,43 +4441,43 @@
         <v>42087</v>
       </c>
       <c r="C55" s="3">
-        <v>0.563194444444444</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D55" s="3">
-        <v>0.60486111111111096</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G55" s="4">
-        <v>-0.28000000000000003</v>
+        <v>0.32</v>
       </c>
       <c r="H55" s="4">
-        <v>-0.28000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="I55" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
       </c>
       <c r="K55" s="4">
-        <v>0</v>
-      </c>
-      <c r="L55" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="M55" s="5">
-        <v>0</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L55" s="5">
+        <v>-0.745</v>
+      </c>
+      <c r="M55" s="4">
+        <v>-30</v>
       </c>
       <c r="N55" s="4">
         <v>0</v>
       </c>
-      <c r="O55" s="4" t="s">
-        <v>60</v>
+      <c r="O55" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -4488,43 +4488,43 @@
         <v>42087</v>
       </c>
       <c r="C56" s="3">
-        <v>0.563194444444444</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D56" s="3">
-        <v>0.60486111111111096</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G56" s="4">
-        <v>-0.22</v>
+        <v>0.79</v>
       </c>
       <c r="H56" s="4">
-        <v>-0.22</v>
+        <v>0.78</v>
       </c>
       <c r="I56" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0</v>
       </c>
       <c r="K56" s="4">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L56" s="4">
-        <v>-0.09</v>
-      </c>
-      <c r="M56" s="5">
-        <v>0</v>
+        <v>-0.66500000000000004</v>
+      </c>
+      <c r="M56" s="4">
+        <v>-30</v>
       </c>
       <c r="N56" s="4">
         <v>0</v>
       </c>
-      <c r="O56" s="7" t="s">
-        <v>61</v>
+      <c r="O56" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -4535,43 +4535,43 @@
         <v>42087</v>
       </c>
       <c r="C57" s="3">
-        <v>0.563194444444444</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D57" s="3">
-        <v>0.60486111111111096</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G57" s="4">
-        <v>-0.15</v>
+        <v>0.99</v>
       </c>
       <c r="H57" s="4">
-        <v>-0.15</v>
+        <v>0.99</v>
       </c>
       <c r="I57" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
       </c>
       <c r="K57" s="4">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L57" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M57" s="5">
-        <v>0</v>
+        <v>0.51</v>
+      </c>
+      <c r="M57" s="4">
+        <v>-30</v>
       </c>
       <c r="N57" s="4">
         <v>0</v>
       </c>
-      <c r="O57" s="7" t="s">
-        <v>62</v>
+      <c r="O57" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -4582,43 +4582,43 @@
         <v>42087</v>
       </c>
       <c r="C58" s="3">
-        <v>0.56319444444444444</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D58" s="3">
-        <v>0.60486111111111118</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G58" s="4">
-        <v>-0.38</v>
+        <v>1.41</v>
       </c>
       <c r="H58" s="4">
-        <v>-0.38</v>
+        <v>1.4</v>
       </c>
       <c r="I58" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0</v>
       </c>
       <c r="K58" s="4">
-        <v>0</v>
-      </c>
-      <c r="L58" s="4">
-        <v>-0.04</v>
-      </c>
-      <c r="M58" s="5">
-        <v>0</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L58" s="5">
+        <v>-0.745</v>
+      </c>
+      <c r="M58" s="4">
+        <v>-30</v>
       </c>
       <c r="N58" s="4">
         <v>0</v>
       </c>
-      <c r="O58" s="7" t="s">
-        <v>50</v>
+      <c r="O58" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -4629,43 +4629,43 @@
         <v>42087</v>
       </c>
       <c r="C59" s="3">
-        <v>0.56319444444444444</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D59" s="3">
-        <v>0.60486111111111118</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G59" s="4">
-        <v>-0.375</v>
+        <v>2.08</v>
       </c>
       <c r="H59" s="4">
-        <v>-0.375</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I59" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0</v>
       </c>
       <c r="K59" s="4">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L59" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="M59" s="5">
-        <v>0</v>
+        <v>0.51</v>
+      </c>
+      <c r="M59" s="4">
+        <v>-30</v>
       </c>
       <c r="N59" s="4">
         <v>0</v>
       </c>
-      <c r="O59" s="4" t="s">
-        <v>52</v>
+      <c r="O59" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -4676,43 +4676,43 @@
         <v>42087</v>
       </c>
       <c r="C60" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D60" s="3">
-        <v>0.65277777777777779</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G60" s="4">
-        <v>-0.38</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="H60" s="4">
-        <v>-0.38</v>
+        <v>2.42</v>
       </c>
       <c r="I60" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0</v>
       </c>
       <c r="K60" s="4">
-        <v>0</v>
-      </c>
-      <c r="L60" s="4">
-        <v>-0.04</v>
-      </c>
-      <c r="M60" s="5">
-        <v>0</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L60" s="5">
+        <v>-0.745</v>
+      </c>
+      <c r="M60" s="4">
+        <v>-30</v>
       </c>
       <c r="N60" s="4">
         <v>0</v>
       </c>
-      <c r="O60" s="7" t="s">
-        <v>50</v>
+      <c r="O60" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -4723,43 +4723,43 @@
         <v>42087</v>
       </c>
       <c r="C61" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.48194444444444401</v>
       </c>
       <c r="D61" s="3">
-        <v>0.65277777777777779</v>
+        <v>0.74722222222222201</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G61" s="4">
-        <v>-0.375</v>
+        <v>0</v>
       </c>
       <c r="H61" s="4">
-        <v>-0.375</v>
+        <v>0</v>
       </c>
       <c r="I61" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
         <v>16</v>
       </c>
       <c r="K61" s="4">
         <v>0</v>
       </c>
       <c r="L61" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="M61" s="5">
+        <v>0</v>
+      </c>
+      <c r="M61" s="4">
         <v>0</v>
       </c>
       <c r="N61" s="4">
         <v>0</v>
       </c>
-      <c r="O61" s="4" t="s">
-        <v>52</v>
+      <c r="O61" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -4770,43 +4770,43 @@
         <v>42087</v>
       </c>
       <c r="C62" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D62" s="3">
-        <v>0.65277777777777801</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G62" s="4">
-        <v>-0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="H62" s="4">
-        <v>-0.36499999999999999</v>
+        <v>0</v>
       </c>
       <c r="I62" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>14</v>
       </c>
       <c r="K62" s="4">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="L62" s="4">
-        <v>-0.21</v>
-      </c>
-      <c r="M62" s="5">
+        <v>0</v>
+      </c>
+      <c r="M62" s="4">
         <v>0</v>
       </c>
       <c r="N62" s="4">
-        <v>1</v>
-      </c>
-      <c r="O62" s="4" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -4817,43 +4817,43 @@
         <v>42087</v>
       </c>
       <c r="C63" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D63" s="3">
-        <v>0.65277777777777801</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" s="4">
-        <v>-0.34499999999999997</v>
-      </c>
-      <c r="H63" s="4">
-        <v>-0.34499999999999997</v>
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="H63">
+        <v>0.435</v>
       </c>
       <c r="I63" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0</v>
       </c>
       <c r="K63" s="4">
-        <v>0</v>
-      </c>
-      <c r="L63" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="M63" s="5">
-        <v>0</v>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L63" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="M63" s="4">
+        <v>-30</v>
       </c>
       <c r="N63" s="4">
         <v>0</v>
       </c>
-      <c r="O63" s="7" t="s">
-        <v>56</v>
+      <c r="O63" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -4864,43 +4864,43 @@
         <v>42087</v>
       </c>
       <c r="C64" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D64" s="3">
-        <v>0.65277777777777801</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" s="4">
-        <v>-0.31</v>
-      </c>
-      <c r="H64" s="4">
-        <v>-0.31</v>
+        <v>11</v>
+      </c>
+      <c r="G64">
+        <v>0.995</v>
+      </c>
+      <c r="H64">
+        <v>1.0049999999999999</v>
       </c>
       <c r="I64" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0</v>
       </c>
       <c r="K64" s="4">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L64" s="4">
-        <v>-0.26</v>
-      </c>
-      <c r="M64" s="5">
-        <v>0</v>
+        <v>-0.15</v>
+      </c>
+      <c r="M64" s="4">
+        <v>-30</v>
       </c>
       <c r="N64" s="4">
         <v>0</v>
       </c>
-      <c r="O64" s="4" t="s">
-        <v>58</v>
+      <c r="O64" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -4911,43 +4911,43 @@
         <v>42087</v>
       </c>
       <c r="C65" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D65" s="3">
-        <v>0.65277777777777801</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="4">
-        <v>-0.28000000000000003</v>
-      </c>
-      <c r="H65" s="4">
-        <v>-0.28000000000000003</v>
+        <v>12</v>
+      </c>
+      <c r="G65">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="H65">
+        <v>1.7949999999999999</v>
       </c>
       <c r="I65" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0</v>
       </c>
       <c r="K65" s="4">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L65" s="4">
-        <v>0.31</v>
-      </c>
-      <c r="M65" s="5">
-        <v>0</v>
+        <v>-0.15</v>
+      </c>
+      <c r="M65" s="4">
+        <v>-30</v>
       </c>
       <c r="N65" s="4">
         <v>0</v>
       </c>
-      <c r="O65" s="4" t="s">
-        <v>60</v>
+      <c r="O65" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -4958,43 +4958,43 @@
         <v>42087</v>
       </c>
       <c r="C66" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D66" s="3">
-        <v>0.65277777777777801</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" s="4">
-        <v>-0.22</v>
-      </c>
-      <c r="H66" s="4">
-        <v>-0.22</v>
+        <v>13</v>
+      </c>
+      <c r="G66">
+        <v>2.8050000000000002</v>
+      </c>
+      <c r="H66">
+        <v>2.8149999999999999</v>
       </c>
       <c r="I66" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0</v>
       </c>
       <c r="K66" s="4">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L66" s="4">
-        <v>-0.09</v>
-      </c>
-      <c r="M66" s="5">
-        <v>0</v>
+        <v>-0.15</v>
+      </c>
+      <c r="M66" s="4">
+        <v>-30</v>
       </c>
       <c r="N66" s="4">
-        <v>0</v>
-      </c>
-      <c r="O66" s="7" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="O66" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -5005,43 +5005,43 @@
         <v>42087</v>
       </c>
       <c r="C67" s="3">
-        <v>0.61111111111111105</v>
+        <v>0.48194444444444445</v>
       </c>
       <c r="D67" s="3">
-        <v>0.65277777777777801</v>
+        <v>0.74722222222222223</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G67" s="4">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="H67" s="4">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="I67" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
       </c>
       <c r="K67" s="4">
         <v>0</v>
       </c>
       <c r="L67" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M67" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M67" s="4">
+        <v>-30</v>
       </c>
       <c r="N67" s="4">
         <v>0</v>
       </c>
-      <c r="O67" s="7" t="s">
-        <v>62</v>
+      <c r="O67" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -5052,22 +5052,22 @@
         <v>42087</v>
       </c>
       <c r="C68" s="3">
-        <v>0.65902777777777777</v>
+        <v>0.563194444444444</v>
       </c>
       <c r="D68" s="3">
-        <v>0.69027777777777777</v>
+        <v>0.60486111111111096</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G68" s="4">
-        <v>-0.38</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="H68" s="4">
-        <v>-0.38</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I68" s="4">
         <v>1E-3</v>
@@ -5079,16 +5079,16 @@
         <v>0</v>
       </c>
       <c r="L68" s="4">
-        <v>-0.04</v>
+        <v>-0.21</v>
       </c>
       <c r="M68" s="5">
         <v>0</v>
       </c>
       <c r="N68" s="4">
-        <v>1</v>
-      </c>
-      <c r="O68" s="7" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -5099,22 +5099,22 @@
         <v>42087</v>
       </c>
       <c r="C69" s="3">
-        <v>0.65902777777777777</v>
+        <v>0.563194444444444</v>
       </c>
       <c r="D69" s="3">
-        <v>0.69027777777777777</v>
+        <v>0.60486111111111096</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G69" s="4">
-        <v>-0.375</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="H69" s="4">
-        <v>-0.375</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I69" s="4">
         <v>1E-3</v>
@@ -5126,16 +5126,16 @@
         <v>0</v>
       </c>
       <c r="L69" s="4">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="M69" s="5">
         <v>0</v>
       </c>
       <c r="N69" s="4">
-        <v>1</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -5146,22 +5146,22 @@
         <v>42087</v>
       </c>
       <c r="C70" s="3">
-        <v>0.65902777777777799</v>
+        <v>0.563194444444444</v>
       </c>
       <c r="D70" s="3">
-        <v>0.69027777777777799</v>
+        <v>0.60486111111111096</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G70" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.31</v>
       </c>
       <c r="H70" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.31</v>
       </c>
       <c r="I70" s="4">
         <v>1E-3</v>
@@ -5173,16 +5173,16 @@
         <v>0</v>
       </c>
       <c r="L70" s="4">
-        <v>-0.21</v>
+        <v>-0.26</v>
       </c>
       <c r="M70" s="5">
         <v>0</v>
       </c>
       <c r="N70" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -5193,22 +5193,22 @@
         <v>42087</v>
       </c>
       <c r="C71" s="3">
-        <v>0.65902777777777799</v>
+        <v>0.563194444444444</v>
       </c>
       <c r="D71" s="3">
-        <v>0.69027777777777799</v>
+        <v>0.60486111111111096</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G71" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H71" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I71" s="4">
         <v>1E-3</v>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="4">
-        <v>0.09</v>
+        <v>0.31</v>
       </c>
       <c r="M71" s="5">
         <v>0</v>
@@ -5228,8 +5228,8 @@
       <c r="N71" s="4">
         <v>0</v>
       </c>
-      <c r="O71" s="7" t="s">
-        <v>56</v>
+      <c r="O71" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -5240,22 +5240,22 @@
         <v>42087</v>
       </c>
       <c r="C72" s="3">
-        <v>0.65902777777777799</v>
+        <v>0.563194444444444</v>
       </c>
       <c r="D72" s="3">
-        <v>0.69027777777777799</v>
+        <v>0.60486111111111096</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G72" s="4">
-        <v>-0.31</v>
+        <v>-0.22</v>
       </c>
       <c r="H72" s="4">
-        <v>-0.31</v>
+        <v>-0.22</v>
       </c>
       <c r="I72" s="4">
         <v>1E-3</v>
@@ -5267,16 +5267,16 @@
         <v>0</v>
       </c>
       <c r="L72" s="4">
-        <v>-0.26</v>
+        <v>-0.09</v>
       </c>
       <c r="M72" s="5">
         <v>0</v>
       </c>
       <c r="N72" s="4">
-        <v>1</v>
-      </c>
-      <c r="O72" s="4" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="O72" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -5287,22 +5287,22 @@
         <v>42087</v>
       </c>
       <c r="C73" s="3">
-        <v>0.65902777777777799</v>
+        <v>0.563194444444444</v>
       </c>
       <c r="D73" s="3">
-        <v>0.69027777777777799</v>
+        <v>0.60486111111111096</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G73" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.15</v>
       </c>
       <c r="H73" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.15</v>
       </c>
       <c r="I73" s="4">
         <v>1E-3</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="4">
-        <v>0.31</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M73" s="5">
         <v>0</v>
@@ -5322,8 +5322,8 @@
       <c r="N73" s="4">
         <v>0</v>
       </c>
-      <c r="O73" s="4" t="s">
-        <v>60</v>
+      <c r="O73" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -5334,22 +5334,22 @@
         <v>42087</v>
       </c>
       <c r="C74" s="3">
-        <v>0.65902777777777799</v>
+        <v>0.56319444444444444</v>
       </c>
       <c r="D74" s="3">
-        <v>0.69027777777777799</v>
+        <v>0.60486111111111118</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G74" s="4">
-        <v>-0.22</v>
+        <v>-0.38</v>
       </c>
       <c r="H74" s="4">
-        <v>-0.22</v>
+        <v>-0.38</v>
       </c>
       <c r="I74" s="4">
         <v>1E-3</v>
@@ -5361,16 +5361,16 @@
         <v>0</v>
       </c>
       <c r="L74" s="4">
-        <v>-0.09</v>
+        <v>-0.04</v>
       </c>
       <c r="M74" s="5">
         <v>0</v>
       </c>
       <c r="N74" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -5381,22 +5381,22 @@
         <v>42087</v>
       </c>
       <c r="C75" s="3">
-        <v>0.65902777777777799</v>
+        <v>0.56319444444444444</v>
       </c>
       <c r="D75" s="3">
-        <v>0.69027777777777799</v>
+        <v>0.60486111111111118</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G75" s="4">
-        <v>-0.15</v>
+        <v>-0.375</v>
       </c>
       <c r="H75" s="4">
-        <v>-0.15</v>
+        <v>-0.375</v>
       </c>
       <c r="I75" s="4">
         <v>1E-3</v>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="M75" s="5">
         <v>0</v>
@@ -5416,8 +5416,8 @@
       <c r="N75" s="4">
         <v>0</v>
       </c>
-      <c r="O75" s="7" t="s">
-        <v>62</v>
+      <c r="O75" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -5428,22 +5428,22 @@
         <v>42087</v>
       </c>
       <c r="C76" s="3">
-        <v>0.7</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D76" s="3">
-        <v>0.74166666666666703</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G76" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.38</v>
       </c>
       <c r="H76" s="4">
-        <v>-0.36499999999999999</v>
+        <v>-0.38</v>
       </c>
       <c r="I76" s="4">
         <v>1E-3</v>
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="4">
-        <v>-0.21</v>
+        <v>-0.04</v>
       </c>
       <c r="M76" s="5">
         <v>0</v>
@@ -5463,8 +5463,8 @@
       <c r="N76" s="4">
         <v>0</v>
       </c>
-      <c r="O76" s="4" t="s">
-        <v>54</v>
+      <c r="O76" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -5475,22 +5475,22 @@
         <v>42087</v>
       </c>
       <c r="C77" s="3">
-        <v>0.7</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D77" s="3">
-        <v>0.74166666666666703</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G77" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.375</v>
       </c>
       <c r="H77" s="4">
-        <v>-0.34499999999999997</v>
+        <v>-0.375</v>
       </c>
       <c r="I77" s="4">
         <v>1E-3</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="4">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="M77" s="5">
         <v>0</v>
@@ -5510,8 +5510,8 @@
       <c r="N77" s="4">
         <v>0</v>
       </c>
-      <c r="O77" s="7" t="s">
-        <v>56</v>
+      <c r="O77" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -5522,22 +5522,22 @@
         <v>42087</v>
       </c>
       <c r="C78" s="3">
-        <v>0.7</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D78" s="3">
-        <v>0.74166666666666703</v>
+        <v>0.65277777777777801</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G78" s="4">
-        <v>-0.31</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="H78" s="4">
-        <v>-0.31</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="I78" s="4">
         <v>1E-3</v>
@@ -5549,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="4">
-        <v>-0.26</v>
+        <v>-0.21</v>
       </c>
       <c r="M78" s="5">
         <v>0</v>
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -5569,22 +5569,22 @@
         <v>42087</v>
       </c>
       <c r="C79" s="3">
-        <v>0.7</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D79" s="3">
-        <v>0.74166666666666703</v>
+        <v>0.65277777777777801</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G79" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="H79" s="4">
-        <v>-0.28000000000000003</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="I79" s="4">
         <v>1E-3</v>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="4">
-        <v>0.31</v>
+        <v>0.09</v>
       </c>
       <c r="M79" s="5">
         <v>0</v>
@@ -5604,8 +5604,8 @@
       <c r="N79" s="4">
         <v>0</v>
       </c>
-      <c r="O79" s="4" t="s">
-        <v>60</v>
+      <c r="O79" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -5616,22 +5616,22 @@
         <v>42087</v>
       </c>
       <c r="C80" s="3">
-        <v>0.7</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D80" s="3">
-        <v>0.74166666666666703</v>
+        <v>0.65277777777777801</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G80" s="4">
-        <v>-0.22</v>
+        <v>-0.31</v>
       </c>
       <c r="H80" s="4">
-        <v>-0.22</v>
+        <v>-0.31</v>
       </c>
       <c r="I80" s="4">
         <v>1E-3</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="4">
-        <v>-0.09</v>
+        <v>-0.26</v>
       </c>
       <c r="M80" s="5">
         <v>0</v>
@@ -5651,8 +5651,8 @@
       <c r="N80" s="4">
         <v>0</v>
       </c>
-      <c r="O80" s="7" t="s">
-        <v>61</v>
+      <c r="O80" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -5663,22 +5663,22 @@
         <v>42087</v>
       </c>
       <c r="C81" s="3">
-        <v>0.7</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D81" s="3">
-        <v>0.74166666666666703</v>
+        <v>0.65277777777777801</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G81" s="4">
-        <v>-0.15</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H81" s="4">
-        <v>-0.15</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="I81" s="4">
         <v>1E-3</v>
@@ -5690,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="M81" s="5">
         <v>0</v>
@@ -5698,8 +5698,8 @@
       <c r="N81" s="4">
         <v>0</v>
       </c>
-      <c r="O81" s="7" t="s">
-        <v>62</v>
+      <c r="O81" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -5710,22 +5710,22 @@
         <v>42087</v>
       </c>
       <c r="C82" s="3">
-        <v>0.70000000000000007</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D82" s="3">
-        <v>0.7416666666666667</v>
+        <v>0.65277777777777801</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G82" s="4">
-        <v>-0.38</v>
+        <v>-0.22</v>
       </c>
       <c r="H82" s="4">
-        <v>-0.38</v>
+        <v>-0.22</v>
       </c>
       <c r="I82" s="4">
         <v>1E-3</v>
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="4">
-        <v>-0.04</v>
+        <v>-0.09</v>
       </c>
       <c r="M82" s="5">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -5757,42 +5757,794 @@
         <v>42087</v>
       </c>
       <c r="C83" s="3">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="H83" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="I83" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="4">
+        <v>0</v>
+      </c>
+      <c r="L83" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M83" s="5">
+        <v>0</v>
+      </c>
+      <c r="N83" s="4">
+        <v>0</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="2">
+        <v>42087</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.65902777777777777</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0.69027777777777777</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="4">
+        <v>-0.38</v>
+      </c>
+      <c r="H84" s="4">
+        <v>-0.38</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K84" s="4">
+        <v>0</v>
+      </c>
+      <c r="L84" s="4">
+        <v>-0.04</v>
+      </c>
+      <c r="M84" s="5">
+        <v>0</v>
+      </c>
+      <c r="N84" s="4">
+        <v>1</v>
+      </c>
+      <c r="O84" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="2">
+        <v>42087</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.65902777777777777</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0.69027777777777777</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="4">
+        <v>-0.375</v>
+      </c>
+      <c r="H85" s="4">
+        <v>-0.375</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" s="4">
+        <v>0</v>
+      </c>
+      <c r="L85" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="M85" s="5">
+        <v>0</v>
+      </c>
+      <c r="N85" s="4">
+        <v>1</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="2">
+        <v>42087</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.65902777777777799</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0.69027777777777799</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="4">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="H86" s="4">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="I86" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K86" s="4">
+        <v>0</v>
+      </c>
+      <c r="L86" s="4">
+        <v>-0.21</v>
+      </c>
+      <c r="M86" s="5">
+        <v>0</v>
+      </c>
+      <c r="N86" s="4">
+        <v>1</v>
+      </c>
+      <c r="O86" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="2">
+        <v>42087</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.65902777777777799</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0.69027777777777799</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="4">
+        <v>-0.34499999999999997</v>
+      </c>
+      <c r="H87" s="4">
+        <v>-0.34499999999999997</v>
+      </c>
+      <c r="I87" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" s="4">
+        <v>0</v>
+      </c>
+      <c r="L87" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="M87" s="5">
+        <v>0</v>
+      </c>
+      <c r="N87" s="4">
+        <v>0</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="2">
+        <v>42087</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.65902777777777799</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.69027777777777799</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" t="s">
+        <v>21</v>
+      </c>
+      <c r="G88" s="4">
+        <v>-0.31</v>
+      </c>
+      <c r="H88" s="4">
+        <v>-0.31</v>
+      </c>
+      <c r="I88" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" s="4">
+        <v>0</v>
+      </c>
+      <c r="L88" s="4">
+        <v>-0.26</v>
+      </c>
+      <c r="M88" s="5">
+        <v>0</v>
+      </c>
+      <c r="N88" s="4">
+        <v>1</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="2">
+        <v>42087</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.65902777777777799</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0.69027777777777799</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="4">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="H89" s="4">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I89" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" s="4">
+        <v>0</v>
+      </c>
+      <c r="L89" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="M89" s="5">
+        <v>0</v>
+      </c>
+      <c r="N89" s="4">
+        <v>0</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="2">
+        <v>42087</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.65902777777777799</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0.69027777777777799</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" s="4">
+        <v>-0.22</v>
+      </c>
+      <c r="H90" s="4">
+        <v>-0.22</v>
+      </c>
+      <c r="I90" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" s="4">
+        <v>0</v>
+      </c>
+      <c r="L90" s="4">
+        <v>-0.09</v>
+      </c>
+      <c r="M90" s="5">
+        <v>0</v>
+      </c>
+      <c r="N90" s="4">
+        <v>1</v>
+      </c>
+      <c r="O90" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="2">
+        <v>42087</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.65902777777777799</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0.69027777777777799</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="H91" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="I91" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="4">
+        <v>0</v>
+      </c>
+      <c r="L91" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M91" s="5">
+        <v>0</v>
+      </c>
+      <c r="N91" s="4">
+        <v>0</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="2">
+        <v>42087</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0.74166666666666703</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="4">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="H92" s="4">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="I92" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" s="4">
+        <v>0</v>
+      </c>
+      <c r="L92" s="4">
+        <v>-0.21</v>
+      </c>
+      <c r="M92" s="5">
+        <v>0</v>
+      </c>
+      <c r="N92" s="4">
+        <v>0</v>
+      </c>
+      <c r="O92" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="2">
+        <v>42087</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.74166666666666703</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="4">
+        <v>-0.34499999999999997</v>
+      </c>
+      <c r="H93" s="4">
+        <v>-0.34499999999999997</v>
+      </c>
+      <c r="I93" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93" s="4">
+        <v>0</v>
+      </c>
+      <c r="L93" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="M93" s="5">
+        <v>0</v>
+      </c>
+      <c r="N93" s="4">
+        <v>0</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="2">
+        <v>42087</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0.74166666666666703</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" t="s">
+        <v>21</v>
+      </c>
+      <c r="G94" s="4">
+        <v>-0.31</v>
+      </c>
+      <c r="H94" s="4">
+        <v>-0.31</v>
+      </c>
+      <c r="I94" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="4">
+        <v>0</v>
+      </c>
+      <c r="L94" s="4">
+        <v>-0.26</v>
+      </c>
+      <c r="M94" s="5">
+        <v>0</v>
+      </c>
+      <c r="N94" s="4">
+        <v>1</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="2">
+        <v>42087</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0.74166666666666703</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" t="s">
+        <v>22</v>
+      </c>
+      <c r="G95" s="4">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="H95" s="4">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I95" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K95" s="4">
+        <v>0</v>
+      </c>
+      <c r="L95" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="M95" s="5">
+        <v>0</v>
+      </c>
+      <c r="N95" s="4">
+        <v>0</v>
+      </c>
+      <c r="O95" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="2">
+        <v>42087</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.74166666666666703</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" s="4">
+        <v>-0.22</v>
+      </c>
+      <c r="H96" s="4">
+        <v>-0.22</v>
+      </c>
+      <c r="I96" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K96" s="4">
+        <v>0</v>
+      </c>
+      <c r="L96" s="4">
+        <v>-0.09</v>
+      </c>
+      <c r="M96" s="5">
+        <v>0</v>
+      </c>
+      <c r="N96" s="4">
+        <v>0</v>
+      </c>
+      <c r="O96" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="2">
+        <v>42087</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0.74166666666666703</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="H97" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="I97" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K97" s="4">
+        <v>0</v>
+      </c>
+      <c r="L97" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M97" s="5">
+        <v>0</v>
+      </c>
+      <c r="N97" s="4">
+        <v>0</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="2">
+        <v>42087</v>
+      </c>
+      <c r="C98" s="3">
         <v>0.70000000000000007</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D98" s="3">
         <v>0.7416666666666667</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="E98" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" s="4">
+        <v>-0.38</v>
+      </c>
+      <c r="H98" s="4">
+        <v>-0.38</v>
+      </c>
+      <c r="I98" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K98" s="4">
+        <v>0</v>
+      </c>
+      <c r="L98" s="4">
+        <v>-0.04</v>
+      </c>
+      <c r="M98" s="5">
+        <v>0</v>
+      </c>
+      <c r="N98" s="4">
+        <v>0</v>
+      </c>
+      <c r="O98" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="2">
+        <v>42087</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" t="s">
         <v>18</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G99" s="4">
         <v>-0.375</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H99" s="4">
         <v>-0.375</v>
       </c>
-      <c r="I83" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K83" s="4">
-        <v>0</v>
-      </c>
-      <c r="L83" s="4">
+      <c r="I99" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" s="4">
+        <v>0</v>
+      </c>
+      <c r="L99" s="4">
         <v>0.26</v>
       </c>
-      <c r="M83" s="5">
-        <v>0</v>
-      </c>
-      <c r="N83" s="4">
-        <v>0</v>
-      </c>
-      <c r="O83" s="4" t="s">
+      <c r="M99" s="5">
+        <v>0</v>
+      </c>
+      <c r="N99" s="4">
+        <v>0</v>
+      </c>
+      <c r="O99" s="4" t="s">
         <v>52</v>
       </c>
     </row>
